--- a/static/Models/Classification/Equation/Media & Entertainment.xlsx
+++ b/static/Models/Classification/Equation/Media & Entertainment.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>2.284706592559814</v>
+        <v>1.648120045661926</v>
       </c>
       <c r="C2">
-        <v>-1.796982049942017</v>
+        <v>-1.394027233123779</v>
       </c>
       <c r="D2">
-        <v>-3.062298774719238</v>
+        <v>-3.029007434844971</v>
       </c>
       <c r="E2">
-        <v>3.75543999671936</v>
+        <v>4.325054168701172</v>
       </c>
       <c r="F2">
-        <v>2.088024854660034</v>
+        <v>1.492183804512024</v>
       </c>
       <c r="G2">
-        <v>-2.218752145767212</v>
+        <v>-1.600062966346741</v>
       </c>
       <c r="H2">
-        <v>-1.288172245025635</v>
+        <v>-1.874227643013</v>
       </c>
       <c r="I2">
-        <v>2.178287267684937</v>
+        <v>1.75871753692627</v>
       </c>
       <c r="J2">
-        <v>-9.853400230407715</v>
+        <v>-10.52215766906738</v>
       </c>
       <c r="K2">
-        <v>-1.72644567489624</v>
+        <v>-2.290280818939209</v>
       </c>
       <c r="L2">
-        <v>2.524673938751221</v>
+        <v>2.404583215713501</v>
       </c>
       <c r="M2">
-        <v>1.980397701263428</v>
+        <v>1.557070016860962</v>
       </c>
       <c r="N2">
-        <v>0.5178506970405579</v>
+        <v>0.09547105431556702</v>
       </c>
       <c r="O2">
-        <v>4.308541297912598</v>
+        <v>3.730786800384521</v>
       </c>
       <c r="P2">
-        <v>-8.377456665039062</v>
+        <v>-8.270898818969727</v>
       </c>
       <c r="Q2">
-        <v>1.850763916969299</v>
+        <v>2.02236270904541</v>
       </c>
       <c r="R2">
-        <v>-0.6853868961334229</v>
+        <v>-1.276780009269714</v>
       </c>
       <c r="S2">
-        <v>-2.435011386871338</v>
+        <v>-2.338100671768188</v>
       </c>
       <c r="T2">
-        <v>3.835515022277832</v>
+        <v>4.397059917449951</v>
       </c>
       <c r="U2">
-        <v>-5.767055511474609</v>
+        <v>-5.523910045623779</v>
       </c>
       <c r="V2">
-        <v>0.2429884374141693</v>
+        <v>-0.2043001502752304</v>
       </c>
       <c r="W2">
-        <v>-17.26433181762695</v>
+        <v>-18.03674507141113</v>
       </c>
       <c r="X2">
-        <v>0.8029279112815857</v>
+        <v>0.4134264290332794</v>
       </c>
       <c r="Y2">
-        <v>-2.461421966552734</v>
+        <v>-2.078573942184448</v>
       </c>
       <c r="Z2">
-        <v>-1.882417798042297</v>
+        <v>-2.09326171875</v>
       </c>
       <c r="AA2">
-        <v>3.435644149780273</v>
+        <v>2.689455509185791</v>
       </c>
       <c r="AB2">
-        <v>-8.018096923828125</v>
+        <v>-7.371707439422607</v>
       </c>
       <c r="AC2">
-        <v>3.245579719543457</v>
+        <v>2.487743854522705</v>
       </c>
       <c r="AD2">
-        <v>-0.9398635625839233</v>
+        <v>-0.8941484093666077</v>
       </c>
       <c r="AE2">
-        <v>-6.051242828369141</v>
+        <v>-5.364574432373047</v>
       </c>
       <c r="AF2">
-        <v>-1.138147950172424</v>
+        <v>-1.295788049697876</v>
       </c>
       <c r="AG2">
-        <v>-4.181787014007568</v>
+        <v>-4.923974990844727</v>
       </c>
       <c r="AH2">
-        <v>-14.22709846496582</v>
+        <v>-14.42591571807861</v>
       </c>
       <c r="AI2">
-        <v>-0.7564613223075867</v>
+        <v>-0.5505286455154419</v>
       </c>
       <c r="AJ2">
-        <v>-1.669409036636353</v>
+        <v>-1.821108937263489</v>
       </c>
       <c r="AK2">
-        <v>-1.165263414382935</v>
+        <v>-1.787918329238892</v>
       </c>
       <c r="AL2">
-        <v>-1.449241638183594</v>
+        <v>-1.800265073776245</v>
       </c>
       <c r="AM2">
-        <v>-8.483424186706543</v>
+        <v>-8.664094924926758</v>
       </c>
       <c r="AN2">
-        <v>-11.00776195526123</v>
+        <v>-11.31747150421143</v>
       </c>
       <c r="AO2">
-        <v>-1.877634167671204</v>
+        <v>-2.477630853652954</v>
       </c>
       <c r="AP2">
-        <v>-7.273980617523193</v>
+        <v>-6.489027976989746</v>
       </c>
       <c r="AQ2">
-        <v>-0.6911968588829041</v>
+        <v>-1.231375098228455</v>
       </c>
       <c r="AR2">
-        <v>4.712432861328125</v>
+        <v>4.182610034942627</v>
       </c>
       <c r="AS2">
-        <v>-7.86718225479126</v>
+        <v>-8.215494155883789</v>
       </c>
       <c r="AT2">
-        <v>-3.708414316177368</v>
+        <v>-4.497269630432129</v>
       </c>
       <c r="AU2">
-        <v>9.952131271362305</v>
+        <v>9.956314086914062</v>
       </c>
       <c r="AV2">
-        <v>-0.8919230103492737</v>
+        <v>-1.072667837142944</v>
       </c>
       <c r="AW2">
-        <v>-0.5034396052360535</v>
+        <v>-0.09106674790382385</v>
       </c>
       <c r="AX2">
-        <v>-4.04411792755127</v>
+        <v>-4.117382526397705</v>
       </c>
       <c r="AY2">
-        <v>-2.891285181045532</v>
+        <v>-3.622344732284546</v>
       </c>
       <c r="AZ2">
-        <v>4.694452285766602</v>
+        <v>3.989017248153687</v>
       </c>
       <c r="BA2">
-        <v>3.917182922363281</v>
+        <v>3.075356721878052</v>
       </c>
       <c r="BB2">
-        <v>-3.22564959526062</v>
+        <v>-2.900901317596436</v>
       </c>
       <c r="BC2">
-        <v>-0.9792706966400146</v>
+        <v>-1.19976007938385</v>
       </c>
       <c r="BD2">
-        <v>-1.090037703514099</v>
+        <v>-0.917865514755249</v>
       </c>
       <c r="BE2">
-        <v>-0.86530601978302</v>
+        <v>-0.1639094650745392</v>
       </c>
       <c r="BF2">
-        <v>1.651944756507874</v>
+        <v>1.990048050880432</v>
       </c>
       <c r="BG2">
-        <v>0.9551330208778381</v>
+        <v>0.6784282326698303</v>
       </c>
       <c r="BH2">
-        <v>0.8005592226982117</v>
+        <v>0.3666346669197083</v>
       </c>
       <c r="BI2">
-        <v>3.416975259780884</v>
+        <v>3.941969394683838</v>
       </c>
       <c r="BJ2">
-        <v>5.184091091156006</v>
+        <v>4.456447601318359</v>
       </c>
       <c r="BK2">
-        <v>2.660167217254639</v>
+        <v>2.680931091308594</v>
       </c>
       <c r="BL2">
-        <v>-1.260037064552307</v>
+        <v>-1.912367343902588</v>
       </c>
       <c r="BM2">
-        <v>-3.180109024047852</v>
+        <v>-3.538910627365112</v>
       </c>
       <c r="BN2">
-        <v>2.3584144115448</v>
+        <v>2.737385749816895</v>
       </c>
       <c r="BO2">
-        <v>-11.611741065979</v>
+        <v>-11.49259185791016</v>
       </c>
       <c r="BP2">
-        <v>-5.714944839477539</v>
+        <v>-5.091083526611328</v>
       </c>
       <c r="BQ2">
-        <v>2.806111574172974</v>
+        <v>2.858473300933838</v>
       </c>
       <c r="BR2">
-        <v>-3.043999671936035</v>
+        <v>-3.731967449188232</v>
       </c>
       <c r="BS2">
-        <v>2.662571668624878</v>
+        <v>2.143482446670532</v>
       </c>
       <c r="BT2">
-        <v>3.01603889465332</v>
+        <v>2.31008243560791</v>
       </c>
       <c r="BU2">
-        <v>-0.4368749260902405</v>
+        <v>-0.1533785164356232</v>
       </c>
       <c r="BV2">
-        <v>1.502684473991394</v>
+        <v>2.155600070953369</v>
       </c>
       <c r="BW2">
-        <v>2.735851287841797</v>
+        <v>2.328292369842529</v>
       </c>
       <c r="BX2">
-        <v>-10.34204769134521</v>
+        <v>-11.02107238769531</v>
       </c>
       <c r="BY2">
-        <v>-0.01260922569781542</v>
+        <v>0.3468479812145233</v>
       </c>
       <c r="BZ2">
-        <v>-2.826152563095093</v>
+        <v>-3.460385322570801</v>
       </c>
       <c r="CA2">
-        <v>-6.065284729003906</v>
+        <v>-5.625970363616943</v>
       </c>
       <c r="CB2">
-        <v>-3.890956401824951</v>
+        <v>-4.543744564056396</v>
       </c>
       <c r="CC2">
-        <v>0.08381781727075577</v>
+        <v>-0.3541296720504761</v>
       </c>
       <c r="CD2">
-        <v>-0.467180997133255</v>
+        <v>-0.3637919723987579</v>
       </c>
       <c r="CE2">
-        <v>-11.6687183380127</v>
+        <v>-12.26833915710449</v>
       </c>
       <c r="CF2">
-        <v>-10.2140941619873</v>
+        <v>-10.46541500091553</v>
       </c>
       <c r="CG2">
-        <v>-12.90739059448242</v>
+        <v>-13.44957828521729</v>
       </c>
       <c r="CH2">
-        <v>-8.79008960723877</v>
+        <v>-8.637341499328613</v>
       </c>
       <c r="CI2">
-        <v>0.3750969469547272</v>
+        <v>0.1576908379793167</v>
       </c>
       <c r="CJ2">
-        <v>-4.396515369415283</v>
+        <v>-4.956640243530273</v>
       </c>
       <c r="CK2">
-        <v>0.8260271549224854</v>
+        <v>0.9640023708343506</v>
       </c>
       <c r="CL2">
-        <v>3.760525941848755</v>
+        <v>3.205472707748413</v>
       </c>
       <c r="CM2">
-        <v>-2.589792251586914</v>
+        <v>-3.144864082336426</v>
       </c>
       <c r="CN2">
-        <v>-0.2182453572750092</v>
+        <v>0.4538940489292145</v>
       </c>
       <c r="CO2">
-        <v>-0.4238710999488831</v>
+        <v>-0.06595585495233536</v>
       </c>
       <c r="CP2">
-        <v>1.855146408081055</v>
+        <v>2.523943901062012</v>
       </c>
       <c r="CQ2">
-        <v>0.3891634047031403</v>
+        <v>-0.2373744994401932</v>
       </c>
       <c r="CR2">
-        <v>-0.9190316200256348</v>
+        <v>-0.4052342176437378</v>
       </c>
       <c r="CS2">
-        <v>-2.880395650863647</v>
+        <v>-3.349620819091797</v>
       </c>
       <c r="CT2">
-        <v>0.3581253588199615</v>
+        <v>-0.1541252881288528</v>
       </c>
       <c r="CU2">
-        <v>-3.663931608200073</v>
+        <v>-3.706515312194824</v>
       </c>
       <c r="CV2">
-        <v>3.785133123397827</v>
+        <v>4.507441520690918</v>
       </c>
       <c r="CW2">
-        <v>-1.912375211715698</v>
+        <v>-1.512438654899597</v>
       </c>
       <c r="CX2">
-        <v>-1.630345582962036</v>
+        <v>-1.158682942390442</v>
       </c>
       <c r="CY2">
-        <v>-6.274806499481201</v>
+        <v>-5.827391624450684</v>
       </c>
       <c r="CZ2">
-        <v>-1.052830934524536</v>
+        <v>-1.724859952926636</v>
       </c>
       <c r="DA2">
-        <v>-3.345470666885376</v>
+        <v>-2.753828763961792</v>
       </c>
       <c r="DB2">
-        <v>8.578173637390137</v>
+        <v>7.771202087402344</v>
       </c>
       <c r="DC2">
-        <v>0.7548391819000244</v>
+        <v>1.431767821311951</v>
       </c>
       <c r="DD2">
-        <v>-10.69554042816162</v>
+        <v>-11.27982521057129</v>
       </c>
       <c r="DE2">
-        <v>-1.401726841926575</v>
+        <v>-1.901588797569275</v>
       </c>
       <c r="DF2">
-        <v>4.318726062774658</v>
+        <v>3.657820224761963</v>
       </c>
       <c r="DG2">
-        <v>-2.790919065475464</v>
+        <v>-2.168152809143066</v>
       </c>
       <c r="DH2">
-        <v>-5.745568752288818</v>
+        <v>-6.139687538146973</v>
       </c>
       <c r="DI2">
-        <v>-0.9383038878440857</v>
+        <v>-0.8309167623519897</v>
       </c>
       <c r="DJ2">
-        <v>7.597989082336426</v>
+        <v>7.295577049255371</v>
       </c>
       <c r="DK2">
-        <v>3.726535320281982</v>
+        <v>4.118539810180664</v>
       </c>
       <c r="DL2">
-        <v>-7.403101921081543</v>
+        <v>-7.909590721130371</v>
       </c>
       <c r="DM2">
-        <v>20.1149787902832</v>
+        <v>19.26421928405762</v>
       </c>
       <c r="DN2">
-        <v>1.79492712020874</v>
+        <v>1.805389285087585</v>
       </c>
       <c r="DO2">
-        <v>1.135714650154114</v>
+        <v>0.9149659872055054</v>
       </c>
       <c r="DP2">
-        <v>5.50252103805542</v>
+        <v>4.910813808441162</v>
       </c>
       <c r="DQ2">
-        <v>0.290880411863327</v>
+        <v>-0.1294472515583038</v>
       </c>
       <c r="DR2">
-        <v>-2.472422361373901</v>
+        <v>-3.052979946136475</v>
       </c>
       <c r="DS2">
-        <v>8.758721351623535</v>
+        <v>8.790692329406738</v>
       </c>
       <c r="DT2">
-        <v>-2.419088840484619</v>
+        <v>-1.88506805896759</v>
       </c>
       <c r="DU2">
-        <v>-2.322613000869751</v>
+        <v>-2.888854265213013</v>
       </c>
       <c r="DV2">
-        <v>2.477618455886841</v>
+        <v>2.38893985748291</v>
       </c>
       <c r="DW2">
-        <v>-1.831113696098328</v>
+        <v>-1.103891253471375</v>
       </c>
       <c r="DX2">
-        <v>1.25570285320282</v>
+        <v>1.047053575515747</v>
       </c>
       <c r="DY2">
-        <v>-4.692519664764404</v>
+        <v>-5.281431674957275</v>
       </c>
       <c r="DZ2">
-        <v>1.483250260353088</v>
+        <v>0.7700913548469543</v>
       </c>
       <c r="EA2">
-        <v>0.9877618551254272</v>
+        <v>1.479647040367126</v>
       </c>
       <c r="EB2">
-        <v>0.1568859815597534</v>
+        <v>-0.0008091586641967297</v>
       </c>
       <c r="EC2">
-        <v>-0.15754234790802</v>
+        <v>-0.7798139452934265</v>
       </c>
       <c r="ED2">
-        <v>-0.1636510193347931</v>
+        <v>0.3632295429706573</v>
       </c>
       <c r="EE2">
-        <v>-0.05337685719132423</v>
+        <v>-0.2699097990989685</v>
       </c>
       <c r="EF2">
-        <v>-1.438159346580505</v>
+        <v>-1.847131133079529</v>
       </c>
       <c r="EG2">
-        <v>-0.5299111604690552</v>
+        <v>-0.05864106863737106</v>
       </c>
       <c r="EH2">
-        <v>-12.7911434173584</v>
+        <v>-12.7899055480957</v>
       </c>
       <c r="EI2">
-        <v>2.15985894203186</v>
+        <v>1.580472230911255</v>
       </c>
       <c r="EJ2">
-        <v>-8.303562164306641</v>
+        <v>-7.594500541687012</v>
       </c>
       <c r="EK2">
-        <v>0.4430029392242432</v>
+        <v>0.02019644714891911</v>
       </c>
       <c r="EL2">
-        <v>-0.3501023948192596</v>
+        <v>-0.03664923459291458</v>
       </c>
       <c r="EM2">
-        <v>-4.534287452697754</v>
+        <v>-3.928302526473999</v>
       </c>
       <c r="EN2">
-        <v>-11.20886135101318</v>
+        <v>-11.4621696472168</v>
       </c>
       <c r="EO2">
-        <v>-5.500470161437988</v>
+        <v>-5.864360332489014</v>
       </c>
       <c r="EP2">
-        <v>2.278562068939209</v>
+        <v>2.474306106567383</v>
       </c>
       <c r="EQ2">
-        <v>3.268765211105347</v>
+        <v>2.710305452346802</v>
       </c>
       <c r="ER2">
-        <v>-0.1370442807674408</v>
+        <v>-0.685425341129303</v>
       </c>
       <c r="ES2">
-        <v>-13.06888198852539</v>
+        <v>-13.32718086242676</v>
       </c>
       <c r="ET2">
-        <v>3.385124683380127</v>
+        <v>4.106704235076904</v>
       </c>
       <c r="EU2">
-        <v>-9.668098449707031</v>
+        <v>-9.232061386108398</v>
       </c>
       <c r="EV2">
-        <v>-3.706793308258057</v>
+        <v>-3.306517362594604</v>
       </c>
       <c r="EW2">
-        <v>1.941334366798401</v>
+        <v>1.970698833465576</v>
       </c>
       <c r="EX2">
-        <v>-2.286246538162231</v>
+        <v>-1.628028631210327</v>
       </c>
       <c r="EY2">
-        <v>-0.4075210094451904</v>
+        <v>-0.2292270660400391</v>
       </c>
       <c r="EZ2">
-        <v>-23.00402069091797</v>
+        <v>-23.64049339294434</v>
       </c>
       <c r="FA2">
-        <v>-2.394312143325806</v>
+        <v>-1.844911575317383</v>
       </c>
       <c r="FB2">
-        <v>1.92045783996582</v>
+        <v>1.382282733917236</v>
       </c>
       <c r="FC2">
-        <v>-3.870473623275757</v>
+        <v>-4.194581508636475</v>
       </c>
       <c r="FD2">
-        <v>-1.700909852981567</v>
+        <v>-2.459975957870483</v>
       </c>
       <c r="FE2">
-        <v>2.267205476760864</v>
+        <v>2.396283388137817</v>
       </c>
       <c r="FF2">
-        <v>1.909815549850464</v>
+        <v>2.614777326583862</v>
       </c>
       <c r="FG2">
-        <v>-12.08720111846924</v>
+        <v>-12.03757190704346</v>
       </c>
       <c r="FH2">
-        <v>1.727903604507446</v>
+        <v>1.250634670257568</v>
       </c>
       <c r="FI2">
-        <v>4.458451747894287</v>
+        <v>4.65668773651123</v>
       </c>
       <c r="FJ2">
-        <v>8.210966110229492</v>
+        <v>8.790351867675781</v>
       </c>
       <c r="FK2">
-        <v>1.279885292053223</v>
+        <v>1.801222324371338</v>
       </c>
       <c r="FL2">
-        <v>0.7769899964332581</v>
+        <v>1.447939991950989</v>
       </c>
       <c r="FM2">
-        <v>-9.715641021728516</v>
+        <v>-9.138608932495117</v>
       </c>
       <c r="FN2">
-        <v>-2.360742330551147</v>
+        <v>-3.015694141387939</v>
       </c>
       <c r="FO2">
-        <v>1.128223657608032</v>
+        <v>0.5109128355979919</v>
       </c>
       <c r="FP2">
-        <v>1.539753556251526</v>
+        <v>1.039625287055969</v>
       </c>
       <c r="FQ2">
-        <v>1.03360915184021</v>
+        <v>1.336859107017517</v>
       </c>
       <c r="FR2">
-        <v>1.35832154750824</v>
+        <v>0.8397029638290405</v>
       </c>
       <c r="FS2">
-        <v>-1.658567786216736</v>
+        <v>-2.21791934967041</v>
       </c>
       <c r="FT2">
-        <v>3.990021467208862</v>
+        <v>4.377851963043213</v>
       </c>
       <c r="FU2">
-        <v>6.811958789825439</v>
+        <v>7.352319717407227</v>
       </c>
       <c r="FV2">
-        <v>0.8682601451873779</v>
+        <v>1.039469242095947</v>
       </c>
       <c r="FW2">
-        <v>-1.892886638641357</v>
+        <v>-1.333724737167358</v>
       </c>
       <c r="FX2">
-        <v>-0.2187154293060303</v>
+        <v>0.1545653343200684</v>
       </c>
       <c r="FY2">
-        <v>-0.4266339242458344</v>
+        <v>-0.6931990385055542</v>
       </c>
       <c r="FZ2">
-        <v>-0.6167784929275513</v>
+        <v>-0.8744631409645081</v>
       </c>
       <c r="GA2">
-        <v>-3.593356370925903</v>
+        <v>-3.66520881652832</v>
       </c>
       <c r="GB2">
-        <v>-1.880276203155518</v>
+        <v>-1.742287397384644</v>
       </c>
       <c r="GC2">
-        <v>3.250632524490356</v>
+        <v>3.251378774642944</v>
       </c>
       <c r="GD2">
-        <v>-0.9869471788406372</v>
+        <v>-0.7980412840843201</v>
       </c>
       <c r="GE2">
-        <v>-0.56318598985672</v>
+        <v>-0.2505934834480286</v>
       </c>
       <c r="GF2">
-        <v>2.28106951713562</v>
+        <v>2.056548357009888</v>
       </c>
       <c r="GG2">
-        <v>-12.61977958679199</v>
+        <v>-12.21877384185791</v>
       </c>
       <c r="GH2">
-        <v>2.632801055908203</v>
+        <v>3.177922248840332</v>
       </c>
       <c r="GI2">
-        <v>-5.667434215545654</v>
+        <v>-5.010612487792969</v>
       </c>
       <c r="GJ2">
-        <v>-0.5636463165283203</v>
+        <v>0.102787658572197</v>
       </c>
       <c r="GK2">
-        <v>-5.430296897888184</v>
+        <v>-5.579017162322998</v>
       </c>
       <c r="GL2">
-        <v>-5.831313610076904</v>
+        <v>-5.128049373626709</v>
       </c>
       <c r="GM2">
-        <v>0.3755219280719757</v>
+        <v>0.9993278384208679</v>
       </c>
       <c r="GN2">
-        <v>1.04241144657135</v>
+        <v>0.4314477741718292</v>
       </c>
       <c r="GO2">
-        <v>-7.768795013427734</v>
+        <v>-7.022367477416992</v>
       </c>
       <c r="GP2">
-        <v>1.811874270439148</v>
+        <v>1.349915981292725</v>
       </c>
       <c r="GQ2">
-        <v>-0.7312021255493164</v>
+        <v>-0.6801539063453674</v>
       </c>
       <c r="GR2">
-        <v>-0.4944798648357391</v>
+        <v>0.1951181888580322</v>
       </c>
       <c r="GS2">
-        <v>-0.6676124334335327</v>
+        <v>-0.7277396321296692</v>
       </c>
       <c r="GT2">
-        <v>0.185138538479805</v>
+        <v>0.922765851020813</v>
       </c>
       <c r="GU2">
-        <v>0.5387447476387024</v>
+        <v>0.6215082406997681</v>
       </c>
       <c r="GV2">
-        <v>0.7578408718109131</v>
+        <v>1.047141075134277</v>
       </c>
       <c r="GW2">
-        <v>-7.612802982330322</v>
+        <v>-6.918809413909912</v>
       </c>
       <c r="GX2">
-        <v>-0.5862207412719727</v>
+        <v>-1.097394466400146</v>
       </c>
       <c r="GY2">
-        <v>-1.886921405792236</v>
+        <v>-1.949977278709412</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Media & Entertainment.xlsx
+++ b/static/Models/Classification/Equation/Media & Entertainment.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>1.648120045661926</v>
+        <v>2.125090837478638</v>
       </c>
       <c r="C2">
-        <v>-1.394027233123779</v>
+        <v>-0.9870023131370544</v>
       </c>
       <c r="D2">
-        <v>-3.029007434844971</v>
+        <v>-3.05704665184021</v>
       </c>
       <c r="E2">
-        <v>4.325054168701172</v>
+        <v>4.512308597564697</v>
       </c>
       <c r="F2">
-        <v>1.492183804512024</v>
+        <v>2.046913623809814</v>
       </c>
       <c r="G2">
-        <v>-1.600062966346741</v>
+        <v>-1.578985095024109</v>
       </c>
       <c r="H2">
-        <v>-1.874227643013</v>
+        <v>-1.279644846916199</v>
       </c>
       <c r="I2">
-        <v>1.75871753692627</v>
+        <v>1.463194251060486</v>
       </c>
       <c r="J2">
-        <v>-10.52215766906738</v>
+        <v>-10.176833152771</v>
       </c>
       <c r="K2">
-        <v>-2.290280818939209</v>
+        <v>-2.036144256591797</v>
       </c>
       <c r="L2">
-        <v>2.404583215713501</v>
+        <v>3.099758863449097</v>
       </c>
       <c r="M2">
-        <v>1.557070016860962</v>
+        <v>0.956619918346405</v>
       </c>
       <c r="N2">
-        <v>0.09547105431556702</v>
+        <v>0.4370534420013428</v>
       </c>
       <c r="O2">
-        <v>3.730786800384521</v>
+        <v>3.627694845199585</v>
       </c>
       <c r="P2">
-        <v>-8.270898818969727</v>
+        <v>-9.018538475036621</v>
       </c>
       <c r="Q2">
-        <v>2.02236270904541</v>
+        <v>2.036800861358643</v>
       </c>
       <c r="R2">
-        <v>-1.276780009269714</v>
+        <v>-1.043642282485962</v>
       </c>
       <c r="S2">
-        <v>-2.338100671768188</v>
+        <v>-2.689159870147705</v>
       </c>
       <c r="T2">
-        <v>4.397059917449951</v>
+        <v>4.14128303527832</v>
       </c>
       <c r="U2">
-        <v>-5.523910045623779</v>
+        <v>-5.006940841674805</v>
       </c>
       <c r="V2">
-        <v>-0.2043001502752304</v>
+        <v>-0.8241629004478455</v>
       </c>
       <c r="W2">
-        <v>-18.03674507141113</v>
+        <v>-17.71268081665039</v>
       </c>
       <c r="X2">
-        <v>0.4134264290332794</v>
+        <v>0.4413261115550995</v>
       </c>
       <c r="Y2">
-        <v>-2.078573942184448</v>
+        <v>-1.652001857757568</v>
       </c>
       <c r="Z2">
-        <v>-2.09326171875</v>
+        <v>-2.216858148574829</v>
       </c>
       <c r="AA2">
-        <v>2.689455509185791</v>
+        <v>2.9129638671875</v>
       </c>
       <c r="AB2">
-        <v>-7.371707439422607</v>
+        <v>-7.234484195709229</v>
       </c>
       <c r="AC2">
-        <v>2.487743854522705</v>
+        <v>2.755451202392578</v>
       </c>
       <c r="AD2">
-        <v>-0.8941484093666077</v>
+        <v>-1.420539855957031</v>
       </c>
       <c r="AE2">
-        <v>-5.364574432373047</v>
+        <v>-4.860501289367676</v>
       </c>
       <c r="AF2">
-        <v>-1.295788049697876</v>
+        <v>-1.892200469970703</v>
       </c>
       <c r="AG2">
-        <v>-4.923974990844727</v>
+        <v>-4.819905757904053</v>
       </c>
       <c r="AH2">
-        <v>-14.42591571807861</v>
+        <v>-14.50232887268066</v>
       </c>
       <c r="AI2">
-        <v>-0.5505286455154419</v>
+        <v>-0.4914251863956451</v>
       </c>
       <c r="AJ2">
-        <v>-1.821108937263489</v>
+        <v>-1.73529040813446</v>
       </c>
       <c r="AK2">
-        <v>-1.787918329238892</v>
+        <v>-1.473175168037415</v>
       </c>
       <c r="AL2">
-        <v>-1.800265073776245</v>
+        <v>-2.004604816436768</v>
       </c>
       <c r="AM2">
-        <v>-8.664094924926758</v>
+        <v>-9.199069976806641</v>
       </c>
       <c r="AN2">
-        <v>-11.31747150421143</v>
+        <v>-11.35962009429932</v>
       </c>
       <c r="AO2">
-        <v>-2.477630853652954</v>
+        <v>-2.508689880371094</v>
       </c>
       <c r="AP2">
-        <v>-6.489027976989746</v>
+        <v>-6.546731472015381</v>
       </c>
       <c r="AQ2">
-        <v>-1.231375098228455</v>
+        <v>-1.336280226707458</v>
       </c>
       <c r="AR2">
-        <v>4.182610034942627</v>
+        <v>4.059728145599365</v>
       </c>
       <c r="AS2">
-        <v>-8.215494155883789</v>
+        <v>-8.360183715820312</v>
       </c>
       <c r="AT2">
-        <v>-4.497269630432129</v>
+        <v>-4.274637699127197</v>
       </c>
       <c r="AU2">
-        <v>9.956314086914062</v>
+        <v>10.17901515960693</v>
       </c>
       <c r="AV2">
-        <v>-1.072667837142944</v>
+        <v>-1.283439159393311</v>
       </c>
       <c r="AW2">
-        <v>-0.09106674790382385</v>
+        <v>0.1006386652588844</v>
       </c>
       <c r="AX2">
-        <v>-4.117382526397705</v>
+        <v>-3.892464399337769</v>
       </c>
       <c r="AY2">
-        <v>-3.622344732284546</v>
+        <v>-3.410144329071045</v>
       </c>
       <c r="AZ2">
-        <v>3.989017248153687</v>
+        <v>4.209249496459961</v>
       </c>
       <c r="BA2">
-        <v>3.075356721878052</v>
+        <v>3.007848262786865</v>
       </c>
       <c r="BB2">
-        <v>-2.900901317596436</v>
+        <v>-2.37814736366272</v>
       </c>
       <c r="BC2">
-        <v>-1.19976007938385</v>
+        <v>-1.671653747558594</v>
       </c>
       <c r="BD2">
-        <v>-0.917865514755249</v>
+        <v>-1.46161949634552</v>
       </c>
       <c r="BE2">
-        <v>-0.1639094650745392</v>
+        <v>-0.2194916158914566</v>
       </c>
       <c r="BF2">
-        <v>1.990048050880432</v>
+        <v>2.35945463180542</v>
       </c>
       <c r="BG2">
-        <v>0.6784282326698303</v>
+        <v>0.2284033894538879</v>
       </c>
       <c r="BH2">
-        <v>0.3666346669197083</v>
+        <v>0.7935847043991089</v>
       </c>
       <c r="BI2">
-        <v>3.941969394683838</v>
+        <v>3.663865089416504</v>
       </c>
       <c r="BJ2">
-        <v>4.456447601318359</v>
+        <v>4.746194839477539</v>
       </c>
       <c r="BK2">
-        <v>2.680931091308594</v>
+        <v>2.679176330566406</v>
       </c>
       <c r="BL2">
-        <v>-1.912367343902588</v>
+        <v>-1.458428621292114</v>
       </c>
       <c r="BM2">
-        <v>-3.538910627365112</v>
+        <v>-3.802128553390503</v>
       </c>
       <c r="BN2">
-        <v>2.737385749816895</v>
+        <v>3.366357564926147</v>
       </c>
       <c r="BO2">
-        <v>-11.49259185791016</v>
+        <v>-11.01697063446045</v>
       </c>
       <c r="BP2">
-        <v>-5.091083526611328</v>
+        <v>-4.684849262237549</v>
       </c>
       <c r="BQ2">
-        <v>2.858473300933838</v>
+        <v>2.776942253112793</v>
       </c>
       <c r="BR2">
-        <v>-3.731967449188232</v>
+        <v>-3.304756641387939</v>
       </c>
       <c r="BS2">
-        <v>2.143482446670532</v>
+        <v>2.265883922576904</v>
       </c>
       <c r="BT2">
-        <v>2.31008243560791</v>
+        <v>2.420316457748413</v>
       </c>
       <c r="BU2">
-        <v>-0.1533785164356232</v>
+        <v>-0.6014544367790222</v>
       </c>
       <c r="BV2">
-        <v>2.155600070953369</v>
+        <v>2.162185192108154</v>
       </c>
       <c r="BW2">
-        <v>2.328292369842529</v>
+        <v>1.606796503067017</v>
       </c>
       <c r="BX2">
-        <v>-11.02107238769531</v>
+        <v>-10.71488666534424</v>
       </c>
       <c r="BY2">
-        <v>0.3468479812145233</v>
+        <v>-0.1499742567539215</v>
       </c>
       <c r="BZ2">
-        <v>-3.460385322570801</v>
+        <v>-3.032562255859375</v>
       </c>
       <c r="CA2">
-        <v>-5.625970363616943</v>
+        <v>-5.435764312744141</v>
       </c>
       <c r="CB2">
-        <v>-4.543744564056396</v>
+        <v>-4.491440773010254</v>
       </c>
       <c r="CC2">
-        <v>-0.3541296720504761</v>
+        <v>-0.5561332702636719</v>
       </c>
       <c r="CD2">
-        <v>-0.3637919723987579</v>
+        <v>0.1922206580638885</v>
       </c>
       <c r="CE2">
-        <v>-12.26833915710449</v>
+        <v>-12.28822612762451</v>
       </c>
       <c r="CF2">
-        <v>-10.46541500091553</v>
+        <v>-10.15929126739502</v>
       </c>
       <c r="CG2">
-        <v>-13.44957828521729</v>
+        <v>-13.37454700469971</v>
       </c>
       <c r="CH2">
-        <v>-8.637341499328613</v>
+        <v>-8.875802993774414</v>
       </c>
       <c r="CI2">
-        <v>0.1576908379793167</v>
+        <v>-0.3517374396324158</v>
       </c>
       <c r="CJ2">
-        <v>-4.956640243530273</v>
+        <v>-4.699104785919189</v>
       </c>
       <c r="CK2">
-        <v>0.9640023708343506</v>
+        <v>0.5883578658103943</v>
       </c>
       <c r="CL2">
-        <v>3.205472707748413</v>
+        <v>2.901998519897461</v>
       </c>
       <c r="CM2">
-        <v>-3.144864082336426</v>
+        <v>-3.264151811599731</v>
       </c>
       <c r="CN2">
-        <v>0.4538940489292145</v>
+        <v>0.5295604467391968</v>
       </c>
       <c r="CO2">
-        <v>-0.06595585495233536</v>
+        <v>-0.5137636661529541</v>
       </c>
       <c r="CP2">
-        <v>2.523943901062012</v>
+        <v>2.582890510559082</v>
       </c>
       <c r="CQ2">
-        <v>-0.2373744994401932</v>
+        <v>-0.3016922175884247</v>
       </c>
       <c r="CR2">
-        <v>-0.4052342176437378</v>
+        <v>-0.5011553168296814</v>
       </c>
       <c r="CS2">
-        <v>-3.349620819091797</v>
+        <v>-3.753113508224487</v>
       </c>
       <c r="CT2">
-        <v>-0.1541252881288528</v>
+        <v>-0.363934189081192</v>
       </c>
       <c r="CU2">
-        <v>-3.706515312194824</v>
+        <v>-3.744385480880737</v>
       </c>
       <c r="CV2">
-        <v>4.507441520690918</v>
+        <v>4.530172824859619</v>
       </c>
       <c r="CW2">
-        <v>-1.512438654899597</v>
+        <v>-1.654137253761292</v>
       </c>
       <c r="CX2">
-        <v>-1.158682942390442</v>
+        <v>-1.007303714752197</v>
       </c>
       <c r="CY2">
-        <v>-5.827391624450684</v>
+        <v>-5.630727291107178</v>
       </c>
       <c r="CZ2">
-        <v>-1.724859952926636</v>
+        <v>-1.403412938117981</v>
       </c>
       <c r="DA2">
-        <v>-2.753828763961792</v>
+        <v>-2.510288715362549</v>
       </c>
       <c r="DB2">
-        <v>7.771202087402344</v>
+        <v>8.009004592895508</v>
       </c>
       <c r="DC2">
-        <v>1.431767821311951</v>
+        <v>1.212902545928955</v>
       </c>
       <c r="DD2">
-        <v>-11.27982521057129</v>
+        <v>-11.1071662902832</v>
       </c>
       <c r="DE2">
-        <v>-1.901588797569275</v>
+        <v>-2.381677150726318</v>
       </c>
       <c r="DF2">
-        <v>3.657820224761963</v>
+        <v>3.871662855148315</v>
       </c>
       <c r="DG2">
-        <v>-2.168152809143066</v>
+        <v>-2.415839910507202</v>
       </c>
       <c r="DH2">
-        <v>-6.139687538146973</v>
+        <v>-5.790878295898438</v>
       </c>
       <c r="DI2">
-        <v>-0.8309167623519897</v>
+        <v>-0.8132722973823547</v>
       </c>
       <c r="DJ2">
-        <v>7.295577049255371</v>
+        <v>7.110727310180664</v>
       </c>
       <c r="DK2">
-        <v>4.118539810180664</v>
+        <v>4.310254096984863</v>
       </c>
       <c r="DL2">
-        <v>-7.909590721130371</v>
+        <v>-8.071208953857422</v>
       </c>
       <c r="DM2">
-        <v>19.26421928405762</v>
+        <v>19.26046562194824</v>
       </c>
       <c r="DN2">
-        <v>1.805389285087585</v>
+        <v>1.37170422077179</v>
       </c>
       <c r="DO2">
-        <v>0.9149659872055054</v>
+        <v>0.2393743246793747</v>
       </c>
       <c r="DP2">
-        <v>4.910813808441162</v>
+        <v>5.282790184020996</v>
       </c>
       <c r="DQ2">
-        <v>-0.1294472515583038</v>
+        <v>-0.6368117928504944</v>
       </c>
       <c r="DR2">
-        <v>-3.052979946136475</v>
+        <v>-2.987944602966309</v>
       </c>
       <c r="DS2">
-        <v>8.790692329406738</v>
+        <v>9.318319320678711</v>
       </c>
       <c r="DT2">
-        <v>-1.88506805896759</v>
+        <v>-1.469009041786194</v>
       </c>
       <c r="DU2">
-        <v>-2.888854265213013</v>
+        <v>-2.713428735733032</v>
       </c>
       <c r="DV2">
-        <v>2.38893985748291</v>
+        <v>1.785911798477173</v>
       </c>
       <c r="DW2">
-        <v>-1.103891253471375</v>
+        <v>-0.8126689791679382</v>
       </c>
       <c r="DX2">
-        <v>1.047053575515747</v>
+        <v>0.6630148887634277</v>
       </c>
       <c r="DY2">
-        <v>-5.281431674957275</v>
+        <v>-4.930270671844482</v>
       </c>
       <c r="DZ2">
-        <v>0.7700913548469543</v>
+        <v>0.537257194519043</v>
       </c>
       <c r="EA2">
-        <v>1.479647040367126</v>
+        <v>1.567580580711365</v>
       </c>
       <c r="EB2">
-        <v>-0.0008091586641967297</v>
+        <v>-0.503940761089325</v>
       </c>
       <c r="EC2">
-        <v>-0.7798139452934265</v>
+        <v>-0.6825882196426392</v>
       </c>
       <c r="ED2">
-        <v>0.3632295429706573</v>
+        <v>0.01185770239681005</v>
       </c>
       <c r="EE2">
-        <v>-0.2699097990989685</v>
+        <v>-0.828226625919342</v>
       </c>
       <c r="EF2">
-        <v>-1.847131133079529</v>
+        <v>-1.437615156173706</v>
       </c>
       <c r="EG2">
-        <v>-0.05864106863737106</v>
+        <v>0.5188568234443665</v>
       </c>
       <c r="EH2">
-        <v>-12.7899055480957</v>
+        <v>-12.18122291564941</v>
       </c>
       <c r="EI2">
-        <v>1.580472230911255</v>
+        <v>2.071629047393799</v>
       </c>
       <c r="EJ2">
-        <v>-7.594500541687012</v>
+        <v>-7.872617721557617</v>
       </c>
       <c r="EK2">
-        <v>0.02019644714891911</v>
+        <v>-0.3781659603118896</v>
       </c>
       <c r="EL2">
-        <v>-0.03664923459291458</v>
+        <v>-0.5612775683403015</v>
       </c>
       <c r="EM2">
-        <v>-3.928302526473999</v>
+        <v>-3.708638191223145</v>
       </c>
       <c r="EN2">
-        <v>-11.4621696472168</v>
+        <v>-11.50608444213867</v>
       </c>
       <c r="EO2">
-        <v>-5.864360332489014</v>
+        <v>-5.562495708465576</v>
       </c>
       <c r="EP2">
-        <v>2.474306106567383</v>
+        <v>2.664883852005005</v>
       </c>
       <c r="EQ2">
-        <v>2.710305452346802</v>
+        <v>2.886763334274292</v>
       </c>
       <c r="ER2">
-        <v>-0.685425341129303</v>
+        <v>-0.6138154864311218</v>
       </c>
       <c r="ES2">
-        <v>-13.32718086242676</v>
+        <v>-13.12901401519775</v>
       </c>
       <c r="ET2">
-        <v>4.106704235076904</v>
+        <v>3.571095705032349</v>
       </c>
       <c r="EU2">
-        <v>-9.232061386108398</v>
+        <v>-8.657881736755371</v>
       </c>
       <c r="EV2">
-        <v>-3.306517362594604</v>
+        <v>-3.731306076049805</v>
       </c>
       <c r="EW2">
-        <v>1.970698833465576</v>
+        <v>1.894828796386719</v>
       </c>
       <c r="EX2">
-        <v>-1.628028631210327</v>
+        <v>-1.211702942848206</v>
       </c>
       <c r="EY2">
-        <v>-0.2292270660400391</v>
+        <v>-0.7466500401496887</v>
       </c>
       <c r="EZ2">
-        <v>-23.64049339294434</v>
+        <v>-23.42300796508789</v>
       </c>
       <c r="FA2">
-        <v>-1.844911575317383</v>
+        <v>-2.133607864379883</v>
       </c>
       <c r="FB2">
-        <v>1.382282733917236</v>
+        <v>0.9319040179252625</v>
       </c>
       <c r="FC2">
-        <v>-4.194581508636475</v>
+        <v>-3.964054346084595</v>
       </c>
       <c r="FD2">
-        <v>-2.459975957870483</v>
+        <v>-2.229518413543701</v>
       </c>
       <c r="FE2">
-        <v>2.396283388137817</v>
+        <v>2.916834592819214</v>
       </c>
       <c r="FF2">
-        <v>2.614777326583862</v>
+        <v>2.512791156768799</v>
       </c>
       <c r="FG2">
-        <v>-12.03757190704346</v>
+        <v>-12.22149276733398</v>
       </c>
       <c r="FH2">
-        <v>1.250634670257568</v>
+        <v>1.638577103614807</v>
       </c>
       <c r="FI2">
-        <v>4.65668773651123</v>
+        <v>5.358879566192627</v>
       </c>
       <c r="FJ2">
-        <v>8.790351867675781</v>
+        <v>8.154948234558105</v>
       </c>
       <c r="FK2">
-        <v>1.801222324371338</v>
+        <v>1.966951370239258</v>
       </c>
       <c r="FL2">
-        <v>1.447939991950989</v>
+        <v>1.498934507369995</v>
       </c>
       <c r="FM2">
-        <v>-9.138608932495117</v>
+        <v>-8.774462699890137</v>
       </c>
       <c r="FN2">
-        <v>-3.015694141387939</v>
+        <v>-2.628271579742432</v>
       </c>
       <c r="FO2">
-        <v>0.5109128355979919</v>
+        <v>0.681412398815155</v>
       </c>
       <c r="FP2">
-        <v>1.039625287055969</v>
+        <v>0.9004321694374084</v>
       </c>
       <c r="FQ2">
-        <v>1.336859107017517</v>
+        <v>0.7958215475082397</v>
       </c>
       <c r="FR2">
-        <v>0.8397029638290405</v>
+        <v>0.3678436279296875</v>
       </c>
       <c r="FS2">
-        <v>-2.21791934967041</v>
+        <v>-2.461262464523315</v>
       </c>
       <c r="FT2">
-        <v>4.377851963043213</v>
+        <v>3.885727167129517</v>
       </c>
       <c r="FU2">
-        <v>7.352319717407227</v>
+        <v>7.049781799316406</v>
       </c>
       <c r="FV2">
-        <v>1.039469242095947</v>
+        <v>0.6193547248840332</v>
       </c>
       <c r="FW2">
-        <v>-1.333724737167358</v>
+        <v>-1.599805235862732</v>
       </c>
       <c r="FX2">
-        <v>0.1545653343200684</v>
+        <v>-0.5066202878952026</v>
       </c>
       <c r="FY2">
-        <v>-0.6931990385055542</v>
+        <v>-0.2048905342817307</v>
       </c>
       <c r="FZ2">
-        <v>-0.8744631409645081</v>
+        <v>-0.5435499548912048</v>
       </c>
       <c r="GA2">
-        <v>-3.66520881652832</v>
+        <v>-3.401080846786499</v>
       </c>
       <c r="GB2">
-        <v>-1.742287397384644</v>
+        <v>-1.95069420337677</v>
       </c>
       <c r="GC2">
-        <v>3.251378774642944</v>
+        <v>3.062773942947388</v>
       </c>
       <c r="GD2">
-        <v>-0.7980412840843201</v>
+        <v>-0.9252792596817017</v>
       </c>
       <c r="GE2">
-        <v>-0.2505934834480286</v>
+        <v>-0.7510414719581604</v>
       </c>
       <c r="GF2">
-        <v>2.056548357009888</v>
+        <v>2.550705671310425</v>
       </c>
       <c r="GG2">
-        <v>-12.21877384185791</v>
+        <v>-11.96100616455078</v>
       </c>
       <c r="GH2">
-        <v>3.177922248840332</v>
+        <v>3.252447128295898</v>
       </c>
       <c r="GI2">
-        <v>-5.010612487792969</v>
+        <v>-4.808687686920166</v>
       </c>
       <c r="GJ2">
-        <v>0.102787658572197</v>
+        <v>0.06374761462211609</v>
       </c>
       <c r="GK2">
-        <v>-5.579017162322998</v>
+        <v>-5.634853363037109</v>
       </c>
       <c r="GL2">
-        <v>-5.128049373626709</v>
+        <v>-5.02642297744751</v>
       </c>
       <c r="GM2">
-        <v>0.9993278384208679</v>
+        <v>0.6753626465797424</v>
       </c>
       <c r="GN2">
-        <v>0.4314477741718292</v>
+        <v>0.7537877559661865</v>
       </c>
       <c r="GO2">
-        <v>-7.022367477416992</v>
+        <v>-7.178188323974609</v>
       </c>
       <c r="GP2">
-        <v>1.349915981292725</v>
+        <v>1.068046450614929</v>
       </c>
       <c r="GQ2">
-        <v>-0.6801539063453674</v>
+        <v>-0.1323416233062744</v>
       </c>
       <c r="GR2">
-        <v>0.1951181888580322</v>
+        <v>0.7804473638534546</v>
       </c>
       <c r="GS2">
-        <v>-0.7277396321296692</v>
+        <v>-0.3435462713241577</v>
       </c>
       <c r="GT2">
-        <v>0.922765851020813</v>
+        <v>1.244869709014893</v>
       </c>
       <c r="GU2">
-        <v>0.6215082406997681</v>
+        <v>0.8267864584922791</v>
       </c>
       <c r="GV2">
-        <v>1.047141075134277</v>
+        <v>0.7318218946456909</v>
       </c>
       <c r="GW2">
-        <v>-6.918809413909912</v>
+        <v>-6.653861522674561</v>
       </c>
       <c r="GX2">
-        <v>-1.097394466400146</v>
+        <v>-1.701178669929504</v>
       </c>
       <c r="GY2">
-        <v>-1.949977278709412</v>
+        <v>-2.469892024993896</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Media & Entertainment.xlsx
+++ b/static/Models/Classification/Equation/Media & Entertainment.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>2.125090837478638</v>
+        <v>1.824859738349915</v>
       </c>
       <c r="C2">
-        <v>-0.9870023131370544</v>
+        <v>-0.1111344993114471</v>
       </c>
       <c r="D2">
-        <v>-3.05704665184021</v>
+        <v>-1.851099252700806</v>
       </c>
       <c r="E2">
-        <v>4.512308597564697</v>
+        <v>5.352738857269287</v>
       </c>
       <c r="F2">
-        <v>2.046913623809814</v>
+        <v>2.212263822555542</v>
       </c>
       <c r="G2">
-        <v>-1.578985095024109</v>
+        <v>-1.429442524909973</v>
       </c>
       <c r="H2">
-        <v>-1.279644846916199</v>
+        <v>-0.03916547074913979</v>
       </c>
       <c r="I2">
-        <v>1.463194251060486</v>
+        <v>1.770518779754639</v>
       </c>
       <c r="J2">
-        <v>-10.176833152771</v>
+        <v>-10.51499938964844</v>
       </c>
       <c r="K2">
-        <v>-2.036144256591797</v>
+        <v>-2.651266813278198</v>
       </c>
       <c r="L2">
-        <v>3.099758863449097</v>
+        <v>2.075278043746948</v>
       </c>
       <c r="M2">
-        <v>0.956619918346405</v>
+        <v>1.406338572502136</v>
       </c>
       <c r="N2">
-        <v>0.4370534420013428</v>
+        <v>-0.4182622730731964</v>
       </c>
       <c r="O2">
-        <v>3.627694845199585</v>
+        <v>3.082370519638062</v>
       </c>
       <c r="P2">
-        <v>-9.018538475036621</v>
+        <v>-10.25086307525635</v>
       </c>
       <c r="Q2">
-        <v>2.036800861358643</v>
+        <v>0.4346278607845306</v>
       </c>
       <c r="R2">
-        <v>-1.043642282485962</v>
+        <v>-1.362616419792175</v>
       </c>
       <c r="S2">
-        <v>-2.689159870147705</v>
+        <v>-2.887850284576416</v>
       </c>
       <c r="T2">
-        <v>4.14128303527832</v>
+        <v>4.186193466186523</v>
       </c>
       <c r="U2">
-        <v>-5.006940841674805</v>
+        <v>-5.228023052215576</v>
       </c>
       <c r="V2">
-        <v>-0.8241629004478455</v>
+        <v>-1.051903486251831</v>
       </c>
       <c r="W2">
-        <v>-17.71268081665039</v>
+        <v>-18.360595703125</v>
       </c>
       <c r="X2">
-        <v>0.4413261115550995</v>
+        <v>0.8750847578048706</v>
       </c>
       <c r="Y2">
-        <v>-1.652001857757568</v>
+        <v>-2.365973234176636</v>
       </c>
       <c r="Z2">
-        <v>-2.216858148574829</v>
+        <v>-1.804507970809937</v>
       </c>
       <c r="AA2">
-        <v>2.9129638671875</v>
+        <v>2.387799739837646</v>
       </c>
       <c r="AB2">
-        <v>-7.234484195709229</v>
+        <v>-8.193422317504883</v>
       </c>
       <c r="AC2">
-        <v>2.755451202392578</v>
+        <v>1.971349716186523</v>
       </c>
       <c r="AD2">
-        <v>-1.420539855957031</v>
+        <v>-0.6745544075965881</v>
       </c>
       <c r="AE2">
-        <v>-4.860501289367676</v>
+        <v>-6.203361034393311</v>
       </c>
       <c r="AF2">
-        <v>-1.892200469970703</v>
+        <v>-1.605659246444702</v>
       </c>
       <c r="AG2">
-        <v>-4.819905757904053</v>
+        <v>-5.443993091583252</v>
       </c>
       <c r="AH2">
-        <v>-14.50232887268066</v>
+        <v>-14.09638977050781</v>
       </c>
       <c r="AI2">
-        <v>-0.4914251863956451</v>
+        <v>-0.09641162306070328</v>
       </c>
       <c r="AJ2">
-        <v>-1.73529040813446</v>
+        <v>-0.9615932703018188</v>
       </c>
       <c r="AK2">
-        <v>-1.473175168037415</v>
+        <v>-2.166110038757324</v>
       </c>
       <c r="AL2">
-        <v>-2.004604816436768</v>
+        <v>-1.357496380805969</v>
       </c>
       <c r="AM2">
-        <v>-9.199069976806641</v>
+        <v>-10.60940647125244</v>
       </c>
       <c r="AN2">
-        <v>-11.35962009429932</v>
+        <v>-11.36820888519287</v>
       </c>
       <c r="AO2">
-        <v>-2.508689880371094</v>
+        <v>-3.802600860595703</v>
       </c>
       <c r="AP2">
-        <v>-6.546731472015381</v>
+        <v>-6.927985191345215</v>
       </c>
       <c r="AQ2">
-        <v>-1.336280226707458</v>
+        <v>-1.533050179481506</v>
       </c>
       <c r="AR2">
-        <v>4.059728145599365</v>
+        <v>2.827593803405762</v>
       </c>
       <c r="AS2">
-        <v>-8.360183715820312</v>
+        <v>-7.22343635559082</v>
       </c>
       <c r="AT2">
-        <v>-4.274637699127197</v>
+        <v>-4.727727890014648</v>
       </c>
       <c r="AU2">
-        <v>10.17901515960693</v>
+        <v>9.829078674316406</v>
       </c>
       <c r="AV2">
-        <v>-1.283439159393311</v>
+        <v>-2.519709587097168</v>
       </c>
       <c r="AW2">
-        <v>0.1006386652588844</v>
+        <v>-0.3242166936397552</v>
       </c>
       <c r="AX2">
-        <v>-3.892464399337769</v>
+        <v>-4.177527904510498</v>
       </c>
       <c r="AY2">
-        <v>-3.410144329071045</v>
+        <v>-4.05097484588623</v>
       </c>
       <c r="AZ2">
-        <v>4.209249496459961</v>
+        <v>5.060878753662109</v>
       </c>
       <c r="BA2">
-        <v>3.007848262786865</v>
+        <v>2.73106837272644</v>
       </c>
       <c r="BB2">
-        <v>-2.37814736366272</v>
+        <v>-3.375573873519897</v>
       </c>
       <c r="BC2">
-        <v>-1.671653747558594</v>
+        <v>-0.5701826214790344</v>
       </c>
       <c r="BD2">
-        <v>-1.46161949634552</v>
+        <v>-0.9809601902961731</v>
       </c>
       <c r="BE2">
-        <v>-0.2194916158914566</v>
+        <v>1.10738742351532</v>
       </c>
       <c r="BF2">
-        <v>2.35945463180542</v>
+        <v>1.596317052841187</v>
       </c>
       <c r="BG2">
-        <v>0.2284033894538879</v>
+        <v>0.6164356470108032</v>
       </c>
       <c r="BH2">
-        <v>0.7935847043991089</v>
+        <v>0.8131153583526611</v>
       </c>
       <c r="BI2">
-        <v>3.663865089416504</v>
+        <v>3.349145650863647</v>
       </c>
       <c r="BJ2">
-        <v>4.746194839477539</v>
+        <v>4.790946006774902</v>
       </c>
       <c r="BK2">
-        <v>2.679176330566406</v>
+        <v>3.859388589859009</v>
       </c>
       <c r="BL2">
-        <v>-1.458428621292114</v>
+        <v>-1.619464039802551</v>
       </c>
       <c r="BM2">
-        <v>-3.802128553390503</v>
+        <v>-2.835108280181885</v>
       </c>
       <c r="BN2">
-        <v>3.366357564926147</v>
+        <v>4.229972839355469</v>
       </c>
       <c r="BO2">
-        <v>-11.01697063446045</v>
+        <v>-10.70314025878906</v>
       </c>
       <c r="BP2">
-        <v>-4.684849262237549</v>
+        <v>-3.637740135192871</v>
       </c>
       <c r="BQ2">
-        <v>2.776942253112793</v>
+        <v>2.673582077026367</v>
       </c>
       <c r="BR2">
-        <v>-3.304756641387939</v>
+        <v>-2.590474605560303</v>
       </c>
       <c r="BS2">
-        <v>2.265883922576904</v>
+        <v>2.198572874069214</v>
       </c>
       <c r="BT2">
-        <v>2.420316457748413</v>
+        <v>1.770511031150818</v>
       </c>
       <c r="BU2">
-        <v>-0.6014544367790222</v>
+        <v>-0.09990942478179932</v>
       </c>
       <c r="BV2">
-        <v>2.162185192108154</v>
+        <v>1.997015237808228</v>
       </c>
       <c r="BW2">
-        <v>1.606796503067017</v>
+        <v>1.906697392463684</v>
       </c>
       <c r="BX2">
-        <v>-10.71488666534424</v>
+        <v>-10.98867130279541</v>
       </c>
       <c r="BY2">
-        <v>-0.1499742567539215</v>
+        <v>0.02575091272592545</v>
       </c>
       <c r="BZ2">
-        <v>-3.032562255859375</v>
+        <v>-3.502535104751587</v>
       </c>
       <c r="CA2">
-        <v>-5.435764312744141</v>
+        <v>-5.095718860626221</v>
       </c>
       <c r="CB2">
-        <v>-4.491440773010254</v>
+        <v>-5.372232913970947</v>
       </c>
       <c r="CC2">
-        <v>-0.5561332702636719</v>
+        <v>-0.3790049850940704</v>
       </c>
       <c r="CD2">
-        <v>0.1922206580638885</v>
+        <v>-0.6449899077415466</v>
       </c>
       <c r="CE2">
-        <v>-12.28822612762451</v>
+        <v>-13.51474952697754</v>
       </c>
       <c r="CF2">
-        <v>-10.15929126739502</v>
+        <v>-11.00458431243896</v>
       </c>
       <c r="CG2">
-        <v>-13.37454700469971</v>
+        <v>-12.84823989868164</v>
       </c>
       <c r="CH2">
-        <v>-8.875802993774414</v>
+        <v>-8.556408882141113</v>
       </c>
       <c r="CI2">
-        <v>-0.3517374396324158</v>
+        <v>0.08847489207983017</v>
       </c>
       <c r="CJ2">
-        <v>-4.699104785919189</v>
+        <v>-4.360648155212402</v>
       </c>
       <c r="CK2">
-        <v>0.5883578658103943</v>
+        <v>0.9717910885810852</v>
       </c>
       <c r="CL2">
-        <v>2.901998519897461</v>
+        <v>3.251174449920654</v>
       </c>
       <c r="CM2">
-        <v>-3.264151811599731</v>
+        <v>-4.367866516113281</v>
       </c>
       <c r="CN2">
-        <v>0.5295604467391968</v>
+        <v>0.9438575506210327</v>
       </c>
       <c r="CO2">
-        <v>-0.5137636661529541</v>
+        <v>-0.3538976907730103</v>
       </c>
       <c r="CP2">
-        <v>2.582890510559082</v>
+        <v>1.870879411697388</v>
       </c>
       <c r="CQ2">
-        <v>-0.3016922175884247</v>
+        <v>-0.6798121929168701</v>
       </c>
       <c r="CR2">
-        <v>-0.5011553168296814</v>
+        <v>-0.8970555663108826</v>
       </c>
       <c r="CS2">
-        <v>-3.753113508224487</v>
+        <v>-3.372242450714111</v>
       </c>
       <c r="CT2">
-        <v>-0.363934189081192</v>
+        <v>-0.1511842608451843</v>
       </c>
       <c r="CU2">
-        <v>-3.744385480880737</v>
+        <v>-2.457757949829102</v>
       </c>
       <c r="CV2">
-        <v>4.530172824859619</v>
+        <v>4.923902034759521</v>
       </c>
       <c r="CW2">
-        <v>-1.654137253761292</v>
+        <v>-1.366364598274231</v>
       </c>
       <c r="CX2">
-        <v>-1.007303714752197</v>
+        <v>-1.677709698677063</v>
       </c>
       <c r="CY2">
-        <v>-5.630727291107178</v>
+        <v>-6.053562164306641</v>
       </c>
       <c r="CZ2">
-        <v>-1.403412938117981</v>
+        <v>-1.389857411384583</v>
       </c>
       <c r="DA2">
-        <v>-2.510288715362549</v>
+        <v>-2.131887912750244</v>
       </c>
       <c r="DB2">
-        <v>8.009004592895508</v>
+        <v>8.159511566162109</v>
       </c>
       <c r="DC2">
-        <v>1.212902545928955</v>
+        <v>0.8708938956260681</v>
       </c>
       <c r="DD2">
-        <v>-11.1071662902832</v>
+        <v>-10.71578407287598</v>
       </c>
       <c r="DE2">
-        <v>-2.381677150726318</v>
+        <v>-2.172322034835815</v>
       </c>
       <c r="DF2">
-        <v>3.871662855148315</v>
+        <v>3.936275005340576</v>
       </c>
       <c r="DG2">
-        <v>-2.415839910507202</v>
+        <v>-2.115831136703491</v>
       </c>
       <c r="DH2">
-        <v>-5.790878295898438</v>
+        <v>-5.984062671661377</v>
       </c>
       <c r="DI2">
-        <v>-0.8132722973823547</v>
+        <v>0.5423688292503357</v>
       </c>
       <c r="DJ2">
-        <v>7.110727310180664</v>
+        <v>8.192872047424316</v>
       </c>
       <c r="DK2">
-        <v>4.310254096984863</v>
+        <v>4.235017776489258</v>
       </c>
       <c r="DL2">
-        <v>-8.071208953857422</v>
+        <v>-7.400358200073242</v>
       </c>
       <c r="DM2">
-        <v>19.26046562194824</v>
+        <v>19.65568733215332</v>
       </c>
       <c r="DN2">
-        <v>1.37170422077179</v>
+        <v>1.672006726264954</v>
       </c>
       <c r="DO2">
-        <v>0.2393743246793747</v>
+        <v>-0.8774787783622742</v>
       </c>
       <c r="DP2">
-        <v>5.282790184020996</v>
+        <v>4.830092906951904</v>
       </c>
       <c r="DQ2">
-        <v>-0.6368117928504944</v>
+        <v>-0.3717898428440094</v>
       </c>
       <c r="DR2">
-        <v>-2.987944602966309</v>
+        <v>-2.280120372772217</v>
       </c>
       <c r="DS2">
-        <v>9.318319320678711</v>
+        <v>9.356061935424805</v>
       </c>
       <c r="DT2">
-        <v>-1.469009041786194</v>
+        <v>-2.256909132003784</v>
       </c>
       <c r="DU2">
-        <v>-2.713428735733032</v>
+        <v>-2.090666770935059</v>
       </c>
       <c r="DV2">
-        <v>1.785911798477173</v>
+        <v>0.410633385181427</v>
       </c>
       <c r="DW2">
-        <v>-0.8126689791679382</v>
+        <v>-0.3699418306350708</v>
       </c>
       <c r="DX2">
-        <v>0.6630148887634277</v>
+        <v>0.8024323582649231</v>
       </c>
       <c r="DY2">
-        <v>-4.930270671844482</v>
+        <v>-4.81760311126709</v>
       </c>
       <c r="DZ2">
-        <v>0.537257194519043</v>
+        <v>-0.2848696112632751</v>
       </c>
       <c r="EA2">
-        <v>1.567580580711365</v>
+        <v>1.255019068717957</v>
       </c>
       <c r="EB2">
-        <v>-0.503940761089325</v>
+        <v>0.09915781766176224</v>
       </c>
       <c r="EC2">
-        <v>-0.6825882196426392</v>
+        <v>-1.53431236743927</v>
       </c>
       <c r="ED2">
-        <v>0.01185770239681005</v>
+        <v>-0.07481569796800613</v>
       </c>
       <c r="EE2">
-        <v>-0.828226625919342</v>
+        <v>-0.8654643893241882</v>
       </c>
       <c r="EF2">
-        <v>-1.437615156173706</v>
+        <v>-1.179356932640076</v>
       </c>
       <c r="EG2">
-        <v>0.5188568234443665</v>
+        <v>-0.9143615961074829</v>
       </c>
       <c r="EH2">
-        <v>-12.18122291564941</v>
+        <v>-12.9599027633667</v>
       </c>
       <c r="EI2">
-        <v>2.071629047393799</v>
+        <v>1.475122928619385</v>
       </c>
       <c r="EJ2">
-        <v>-7.872617721557617</v>
+        <v>-8.120986938476562</v>
       </c>
       <c r="EK2">
-        <v>-0.3781659603118896</v>
+        <v>0.2575162053108215</v>
       </c>
       <c r="EL2">
-        <v>-0.5612775683403015</v>
+        <v>-0.0704001784324646</v>
       </c>
       <c r="EM2">
-        <v>-3.708638191223145</v>
+        <v>-2.917279720306396</v>
       </c>
       <c r="EN2">
-        <v>-11.50608444213867</v>
+        <v>-12.33289337158203</v>
       </c>
       <c r="EO2">
-        <v>-5.562495708465576</v>
+        <v>-5.185056209564209</v>
       </c>
       <c r="EP2">
-        <v>2.664883852005005</v>
+        <v>2.224663019180298</v>
       </c>
       <c r="EQ2">
-        <v>2.886763334274292</v>
+        <v>3.32912540435791</v>
       </c>
       <c r="ER2">
-        <v>-0.6138154864311218</v>
+        <v>-0.0860883891582489</v>
       </c>
       <c r="ES2">
-        <v>-13.12901401519775</v>
+        <v>-12.72751808166504</v>
       </c>
       <c r="ET2">
-        <v>3.571095705032349</v>
+        <v>2.081506729125977</v>
       </c>
       <c r="EU2">
-        <v>-8.657881736755371</v>
+        <v>-7.857329845428467</v>
       </c>
       <c r="EV2">
-        <v>-3.731306076049805</v>
+        <v>-5.377352714538574</v>
       </c>
       <c r="EW2">
-        <v>1.894828796386719</v>
+        <v>2.170599937438965</v>
       </c>
       <c r="EX2">
-        <v>-1.211702942848206</v>
+        <v>-1.549794673919678</v>
       </c>
       <c r="EY2">
-        <v>-0.7466500401496887</v>
+        <v>-0.1371228843927383</v>
       </c>
       <c r="EZ2">
-        <v>-23.42300796508789</v>
+        <v>-22.25264167785645</v>
       </c>
       <c r="FA2">
-        <v>-2.133607864379883</v>
+        <v>-2.60691237449646</v>
       </c>
       <c r="FB2">
-        <v>0.9319040179252625</v>
+        <v>1.137492895126343</v>
       </c>
       <c r="FC2">
-        <v>-3.964054346084595</v>
+        <v>-4.560953617095947</v>
       </c>
       <c r="FD2">
-        <v>-2.229518413543701</v>
+        <v>-2.913578510284424</v>
       </c>
       <c r="FE2">
-        <v>2.916834592819214</v>
+        <v>4.120534896850586</v>
       </c>
       <c r="FF2">
-        <v>2.512791156768799</v>
+        <v>2.41635537147522</v>
       </c>
       <c r="FG2">
-        <v>-12.22149276733398</v>
+        <v>-12.00016117095947</v>
       </c>
       <c r="FH2">
-        <v>1.638577103614807</v>
+        <v>2.786913871765137</v>
       </c>
       <c r="FI2">
-        <v>5.358879566192627</v>
+        <v>6.619681835174561</v>
       </c>
       <c r="FJ2">
-        <v>8.154948234558105</v>
+        <v>7.305592060089111</v>
       </c>
       <c r="FK2">
-        <v>1.966951370239258</v>
+        <v>1.308748245239258</v>
       </c>
       <c r="FL2">
-        <v>1.498934507369995</v>
+        <v>2.068578243255615</v>
       </c>
       <c r="FM2">
-        <v>-8.774462699890137</v>
+        <v>-7.806602001190186</v>
       </c>
       <c r="FN2">
-        <v>-2.628271579742432</v>
+        <v>-2.819697856903076</v>
       </c>
       <c r="FO2">
-        <v>0.681412398815155</v>
+        <v>-0.7485554218292236</v>
       </c>
       <c r="FP2">
-        <v>0.9004321694374084</v>
+        <v>1.521479249000549</v>
       </c>
       <c r="FQ2">
-        <v>0.7958215475082397</v>
+        <v>1.049083590507507</v>
       </c>
       <c r="FR2">
-        <v>0.3678436279296875</v>
+        <v>0.4049990773200989</v>
       </c>
       <c r="FS2">
-        <v>-2.461262464523315</v>
+        <v>-2.212041139602661</v>
       </c>
       <c r="FT2">
-        <v>3.885727167129517</v>
+        <v>3.981275081634521</v>
       </c>
       <c r="FU2">
-        <v>7.049781799316406</v>
+        <v>6.854457378387451</v>
       </c>
       <c r="FV2">
-        <v>0.6193547248840332</v>
+        <v>1.26922070980072</v>
       </c>
       <c r="FW2">
-        <v>-1.599805235862732</v>
+        <v>-1.635858535766602</v>
       </c>
       <c r="FX2">
-        <v>-0.5066202878952026</v>
+        <v>-0.2713865637779236</v>
       </c>
       <c r="FY2">
-        <v>-0.2048905342817307</v>
+        <v>-1.554485321044922</v>
       </c>
       <c r="FZ2">
-        <v>-0.5435499548912048</v>
+        <v>-0.8015276193618774</v>
       </c>
       <c r="GA2">
-        <v>-3.401080846786499</v>
+        <v>-3.909805536270142</v>
       </c>
       <c r="GB2">
-        <v>-1.95069420337677</v>
+        <v>-1.563783526420593</v>
       </c>
       <c r="GC2">
-        <v>3.062773942947388</v>
+        <v>2.96395206451416</v>
       </c>
       <c r="GD2">
-        <v>-0.9252792596817017</v>
+        <v>-1.640225887298584</v>
       </c>
       <c r="GE2">
-        <v>-0.7510414719581604</v>
+        <v>-0.3883413374423981</v>
       </c>
       <c r="GF2">
-        <v>2.550705671310425</v>
+        <v>1.598181962966919</v>
       </c>
       <c r="GG2">
-        <v>-11.96100616455078</v>
+        <v>-11.75090026855469</v>
       </c>
       <c r="GH2">
-        <v>3.252447128295898</v>
+        <v>3.044576406478882</v>
       </c>
       <c r="GI2">
-        <v>-4.808687686920166</v>
+        <v>-4.579986095428467</v>
       </c>
       <c r="GJ2">
-        <v>0.06374761462211609</v>
+        <v>-0.530438244342804</v>
       </c>
       <c r="GK2">
-        <v>-5.634853363037109</v>
+        <v>-5.810437679290771</v>
       </c>
       <c r="GL2">
-        <v>-5.02642297744751</v>
+        <v>-4.637387275695801</v>
       </c>
       <c r="GM2">
-        <v>0.6753626465797424</v>
+        <v>0.5797719955444336</v>
       </c>
       <c r="GN2">
-        <v>0.7537877559661865</v>
+        <v>0.3250614404678345</v>
       </c>
       <c r="GO2">
-        <v>-7.178188323974609</v>
+        <v>-8.630301475524902</v>
       </c>
       <c r="GP2">
-        <v>1.068046450614929</v>
+        <v>1.090881943702698</v>
       </c>
       <c r="GQ2">
-        <v>-0.1323416233062744</v>
+        <v>-0.5249567627906799</v>
       </c>
       <c r="GR2">
-        <v>0.7804473638534546</v>
+        <v>0.4862601757049561</v>
       </c>
       <c r="GS2">
-        <v>-0.3435462713241577</v>
+        <v>-0.4414946436882019</v>
       </c>
       <c r="GT2">
-        <v>1.244869709014893</v>
+        <v>0.9190042614936829</v>
       </c>
       <c r="GU2">
-        <v>0.8267864584922791</v>
+        <v>0.3869358599185944</v>
       </c>
       <c r="GV2">
-        <v>0.7318218946456909</v>
+        <v>2.060749053955078</v>
       </c>
       <c r="GW2">
-        <v>-6.653861522674561</v>
+        <v>-6.442434787750244</v>
       </c>
       <c r="GX2">
-        <v>-1.701178669929504</v>
+        <v>-1.005614042282104</v>
       </c>
       <c r="GY2">
-        <v>-2.469892024993896</v>
+        <v>-1.941505908966064</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Media & Entertainment.xlsx
+++ b/static/Models/Classification/Equation/Media & Entertainment.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.261310338973999</v>
+        <v>2.512233734130859</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2233983129262924</v>
+        <v>-0.4780573844909668</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.318342447280884</v>
+        <v>-2.06899094581604</v>
       </c>
       <c r="E2" t="n">
-        <v>4.949453353881836</v>
+        <v>5.082296848297119</v>
       </c>
       <c r="F2" t="n">
-        <v>2.084595441818237</v>
+        <v>2.324001550674438</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.742343306541443</v>
+        <v>-2.005561828613281</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4909179508686066</v>
+        <v>-0.2412106990814209</v>
       </c>
       <c r="I2" t="n">
-        <v>2.331148862838745</v>
+        <v>2.121140480041504</v>
       </c>
       <c r="J2" t="n">
-        <v>-10.06342029571533</v>
+        <v>-9.809347152709961</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.13377571105957</v>
+        <v>-2.879739284515381</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5663001537323</v>
+        <v>2.416016578674316</v>
       </c>
       <c r="M2" t="n">
-        <v>1.517908573150635</v>
+        <v>1.75982403755188</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.9861837029457092</v>
+        <v>-1.234770536422729</v>
       </c>
       <c r="O2" t="n">
-        <v>2.658275365829468</v>
+        <v>2.405741691589355</v>
       </c>
       <c r="P2" t="n">
-        <v>-9.901601791381836</v>
+        <v>-9.651056289672852</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2188263535499573</v>
+        <v>-0.4673745334148407</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.834866404533386</v>
+        <v>-2.077650547027588</v>
       </c>
       <c r="S2" t="n">
-        <v>-2.495148181915283</v>
+        <v>-2.716479778289795</v>
       </c>
       <c r="T2" t="n">
-        <v>3.830641508102417</v>
+        <v>3.581985950469971</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.755587577819824</v>
+        <v>-4.472072601318359</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.452765822410583</v>
+        <v>-1.202269911766052</v>
       </c>
       <c r="W2" t="n">
-        <v>-19.02253723144531</v>
+        <v>-18.77623748779297</v>
       </c>
       <c r="X2" t="n">
-        <v>1.383052110671997</v>
+        <v>1.633638262748718</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.690245628356934</v>
+        <v>-1.468540906906128</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.47431755065918</v>
+        <v>-1.717775344848633</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.840948581695557</v>
+        <v>3.094472885131836</v>
       </c>
       <c r="AB2" t="n">
-        <v>-8.413911819458008</v>
+        <v>-8.663204193115234</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.326971292495728</v>
+        <v>2.575748682022095</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.572153627872467</v>
+        <v>-0.8167175650596619</v>
       </c>
       <c r="AE2" t="n">
-        <v>-6.168058395385742</v>
+        <v>-6.412975788116455</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.119932413101196</v>
+        <v>-0.8783724308013916</v>
       </c>
       <c r="AG2" t="n">
-        <v>-5.099018096923828</v>
+        <v>-4.832816123962402</v>
       </c>
       <c r="AH2" t="n">
-        <v>-13.59277629852295</v>
+        <v>-13.33152294158936</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.3950531184673309</v>
+        <v>0.1412929892539978</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.5030856132507324</v>
+        <v>-0.2510351538658142</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1.706522703170776</v>
+        <v>-1.452403903007507</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.408125519752502</v>
+        <v>-1.554101824760437</v>
       </c>
       <c r="AM2" t="n">
-        <v>-10.09096908569336</v>
+        <v>-10.33910179138184</v>
       </c>
       <c r="AN2" t="n">
-        <v>-11.75822830200195</v>
+        <v>-11.52232837677002</v>
       </c>
       <c r="AO2" t="n">
-        <v>-3.104395627975464</v>
+        <v>-3.34926438331604</v>
       </c>
       <c r="AP2" t="n">
-        <v>-6.514359474182129</v>
+        <v>-6.758572578430176</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-2.078296661376953</v>
+        <v>-2.322360992431641</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.320951700210571</v>
+        <v>3.067968368530273</v>
       </c>
       <c r="AS2" t="n">
-        <v>-7.630128383636475</v>
+        <v>-7.391396522521973</v>
       </c>
       <c r="AT2" t="n">
-        <v>-4.240711688995361</v>
+        <v>-4.49232816696167</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.279544830322266</v>
+        <v>9.486416816711426</v>
       </c>
       <c r="AV2" t="n">
-        <v>-2.147911787033081</v>
+        <v>-2.393757820129395</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.7758916020393372</v>
+        <v>-0.5382596850395203</v>
       </c>
       <c r="AX2" t="n">
-        <v>-3.570562362670898</v>
+        <v>-3.420941591262817</v>
       </c>
       <c r="AY2" t="n">
-        <v>-4.382243633270264</v>
+        <v>-4.132003307342529</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.508801460266113</v>
+        <v>5.751213073730469</v>
       </c>
       <c r="BA2" t="n">
-        <v>3.270595550537109</v>
+        <v>3.513291120529175</v>
       </c>
       <c r="BB2" t="n">
-        <v>-2.997138977050781</v>
+        <v>-3.248048305511475</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.1286559849977493</v>
+        <v>0.118790864944458</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.242238163948059</v>
+        <v>-1.487120628356934</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.617264151573181</v>
+        <v>1.865452289581299</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.986266493797302</v>
+        <v>1.734093070030212</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.4052194952964783</v>
+        <v>0.1599198430776596</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.3112209439277649</v>
+        <v>0.07782943546772003</v>
       </c>
       <c r="BI2" t="n">
-        <v>3.003888607025146</v>
+        <v>2.755921125411987</v>
       </c>
       <c r="BJ2" t="n">
-        <v>5.051036834716797</v>
+        <v>4.802318572998047</v>
       </c>
       <c r="BK2" t="n">
-        <v>4.309868812561035</v>
+        <v>4.05498218536377</v>
       </c>
       <c r="BL2" t="n">
-        <v>-1.183701992034912</v>
+        <v>-0.9327075481414795</v>
       </c>
       <c r="BM2" t="n">
-        <v>-3.423091888427734</v>
+        <v>-3.177676200866699</v>
       </c>
       <c r="BN2" t="n">
-        <v>4.310886383056641</v>
+        <v>4.559169769287109</v>
       </c>
       <c r="BO2" t="n">
-        <v>-11.23077869415283</v>
+        <v>-10.98269081115723</v>
       </c>
       <c r="BP2" t="n">
-        <v>-4.033829689025879</v>
+        <v>-4.148804664611816</v>
       </c>
       <c r="BQ2" t="n">
-        <v>3.12109899520874</v>
+        <v>2.87042236328125</v>
       </c>
       <c r="BR2" t="n">
-        <v>-2.011001586914062</v>
+        <v>-1.765034437179565</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.775478959083557</v>
+        <v>2.02994966506958</v>
       </c>
       <c r="BT2" t="n">
-        <v>2.216579675674438</v>
+        <v>2.469509601593018</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.4548879861831665</v>
+        <v>-0.7036935687065125</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.585202932357788</v>
+        <v>1.831318974494934</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.368327856063843</v>
+        <v>2.121964693069458</v>
       </c>
       <c r="BX2" t="n">
-        <v>-10.53543186187744</v>
+        <v>-10.27857971191406</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.6624506711959839</v>
+        <v>0.9361343383789062</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-3.051407814025879</v>
+        <v>-2.798341512680054</v>
       </c>
       <c r="CA2" t="n">
-        <v>-5.645267963409424</v>
+        <v>-5.438399791717529</v>
       </c>
       <c r="CB2" t="n">
-        <v>-5.724490165710449</v>
+        <v>-5.960294246673584</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.1868991851806641</v>
+        <v>-0.04638533294200897</v>
       </c>
       <c r="CD2" t="n">
-        <v>-1.085554599761963</v>
+        <v>-1.325410485267639</v>
       </c>
       <c r="CE2" t="n">
-        <v>-12.89502429962158</v>
+        <v>-13.14003276824951</v>
       </c>
       <c r="CF2" t="n">
-        <v>-10.49954032897949</v>
+        <v>-10.2418384552002</v>
       </c>
       <c r="CG2" t="n">
-        <v>-13.090576171875</v>
+        <v>-13.36279010772705</v>
       </c>
       <c r="CH2" t="n">
-        <v>-8.097248077392578</v>
+        <v>-8.252251625061035</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.08454462140798569</v>
+        <v>-0.3277496993541718</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-4.811405181884766</v>
+        <v>-5.061330795288086</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.380090951919556</v>
+        <v>1.136132001876831</v>
       </c>
       <c r="CL2" t="n">
-        <v>3.819375038146973</v>
+        <v>3.590514898300171</v>
       </c>
       <c r="CM2" t="n">
-        <v>-4.537880420684814</v>
+        <v>-4.774740219116211</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.074898958206177</v>
+        <v>1.304205179214478</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.6798402070999146</v>
+        <v>-0.9260615110397339</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.465569496154785</v>
+        <v>1.215668439865112</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.6593520045280457</v>
+        <v>-0.4147346019744873</v>
       </c>
       <c r="CR2" t="n">
-        <v>-1.410433888435364</v>
+        <v>-1.652616858482361</v>
       </c>
       <c r="CS2" t="n">
-        <v>-2.888687133789062</v>
+        <v>-3.127628087997437</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.4232431054115295</v>
+        <v>0.1917803585529327</v>
       </c>
       <c r="CU2" t="n">
-        <v>-2.515213489532471</v>
+        <v>-2.765892267227173</v>
       </c>
       <c r="CV2" t="n">
-        <v>4.379638671875</v>
+        <v>4.133589744567871</v>
       </c>
       <c r="CW2" t="n">
-        <v>-1.881385922431946</v>
+        <v>-1.628789782524109</v>
       </c>
       <c r="CX2" t="n">
-        <v>-2.130706548690796</v>
+        <v>-1.87453556060791</v>
       </c>
       <c r="CY2" t="n">
-        <v>-6.525277614593506</v>
+        <v>-6.289392471313477</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.9292833209037781</v>
+        <v>-0.6752407550811768</v>
       </c>
       <c r="DA2" t="n">
-        <v>-2.498920679092407</v>
+        <v>-2.258826732635498</v>
       </c>
       <c r="DB2" t="n">
-        <v>7.617932319641113</v>
+        <v>7.37047290802002</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.2046347111463547</v>
+        <v>0.4626451134681702</v>
       </c>
       <c r="DD2" t="n">
-        <v>-10.25162792205811</v>
+        <v>-9.982670783996582</v>
       </c>
       <c r="DE2" t="n">
-        <v>-2.123070001602173</v>
+        <v>-2.363038063049316</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.372078895568848</v>
+        <v>4.624632358551025</v>
       </c>
       <c r="DG2" t="n">
-        <v>-1.654900550842285</v>
+        <v>-1.904322743415833</v>
       </c>
       <c r="DH2" t="n">
-        <v>-6.401202201843262</v>
+        <v>-6.654913902282715</v>
       </c>
       <c r="DI2" t="n">
-        <v>1.060606122016907</v>
+        <v>0.8045320510864258</v>
       </c>
       <c r="DJ2" t="n">
-        <v>7.690519332885742</v>
+        <v>7.938014507293701</v>
       </c>
       <c r="DK2" t="n">
-        <v>3.791452646255493</v>
+        <v>3.541049480438232</v>
       </c>
       <c r="DL2" t="n">
-        <v>-7.66262674331665</v>
+        <v>-7.518979072570801</v>
       </c>
       <c r="DM2" t="n">
-        <v>20.11909294128418</v>
+        <v>19.86073684692383</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.477537274360657</v>
+        <v>1.232944369316101</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.448501855134964</v>
+        <v>-0.6894771456718445</v>
       </c>
       <c r="DP2" t="n">
-        <v>5.252201080322266</v>
+        <v>5.50255012512207</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.4795675873756409</v>
+        <v>-0.7178067564964294</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.790842056274414</v>
+        <v>-1.658528804779053</v>
       </c>
       <c r="DS2" t="n">
-        <v>8.960289001464844</v>
+        <v>8.706212997436523</v>
       </c>
       <c r="DT2" t="n">
-        <v>-1.908448696136475</v>
+        <v>-1.659674882888794</v>
       </c>
       <c r="DU2" t="n">
-        <v>-2.132107019424438</v>
+        <v>-2.40767502784729</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.1184706315398216</v>
+        <v>0.1317324191331863</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.9160998463630676</v>
+        <v>-0.6713749170303345</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.7295378446578979</v>
+        <v>0.4870072603225708</v>
       </c>
       <c r="DY2" t="n">
-        <v>-5.278985977172852</v>
+        <v>-5.028533458709717</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.5925809144973755</v>
+        <v>-0.3464958965778351</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.7971559166908264</v>
+        <v>0.5457425117492676</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.1205118969082832</v>
+        <v>-0.3648037612438202</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.082816958427429</v>
+        <v>-1.315464496612549</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.4272809326648712</v>
+        <v>-0.6759345531463623</v>
       </c>
       <c r="EE2" t="n">
-        <v>-1.117755532264709</v>
+        <v>-1.359604120254517</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.7007896900177002</v>
+        <v>-0.4989952147006989</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.4287751913070679</v>
+        <v>-0.6791741847991943</v>
       </c>
       <c r="EH2" t="n">
-        <v>-12.53047943115234</v>
+        <v>-12.70566177368164</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.919263124465942</v>
+        <v>2.171596765518188</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-8.650103569030762</v>
+        <v>-8.900740623474121</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.8783682584762573</v>
+        <v>0.6421918869018555</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.4083591103553772</v>
+        <v>-0.6550151705741882</v>
       </c>
       <c r="EM2" t="n">
-        <v>-3.355415105819702</v>
+        <v>-3.140282869338989</v>
       </c>
       <c r="EN2" t="n">
-        <v>-11.86100196838379</v>
+        <v>-12.10812187194824</v>
       </c>
       <c r="EO2" t="n">
-        <v>-4.734643459320068</v>
+        <v>-4.998203754425049</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.719202041625977</v>
+        <v>1.925105214118958</v>
       </c>
       <c r="EQ2" t="n">
-        <v>3.286170482635498</v>
+        <v>3.027650356292725</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.3968683481216431</v>
+        <v>0.1462232321500778</v>
       </c>
       <c r="ES2" t="n">
-        <v>-12.24688529968262</v>
+        <v>-11.97517776489258</v>
       </c>
       <c r="ET2" t="n">
-        <v>2.371751070022583</v>
+        <v>2.129616260528564</v>
       </c>
       <c r="EU2" t="n">
-        <v>-8.209436416625977</v>
+        <v>-8.215336799621582</v>
       </c>
       <c r="EV2" t="n">
-        <v>-5.233157157897949</v>
+        <v>-4.984634399414062</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.716752886772156</v>
+        <v>1.966207027435303</v>
       </c>
       <c r="EX2" t="n">
-        <v>-2.317495107650757</v>
+        <v>-2.069069862365723</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.5356134176254272</v>
+        <v>-0.7819615006446838</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-22.70525360107422</v>
+        <v>-22.45565223693848</v>
       </c>
       <c r="FA2" t="n">
-        <v>-2.969123840332031</v>
+        <v>-3.197455406188965</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.060330867767334</v>
+        <v>0.8215304017066956</v>
       </c>
       <c r="FC2" t="n">
-        <v>-5.165321826934814</v>
+        <v>-5.369608402252197</v>
       </c>
       <c r="FD2" t="n">
-        <v>-2.451110363006592</v>
+        <v>-2.196850776672363</v>
       </c>
       <c r="FE2" t="n">
-        <v>3.662005662918091</v>
+        <v>3.410443305969238</v>
       </c>
       <c r="FF2" t="n">
-        <v>2.601460456848145</v>
+        <v>2.358228921890259</v>
       </c>
       <c r="FG2" t="n">
-        <v>-11.54314422607422</v>
+        <v>-11.29311466217041</v>
       </c>
       <c r="FH2" t="n">
-        <v>3.361729860305786</v>
+        <v>3.096111536026001</v>
       </c>
       <c r="FI2" t="n">
-        <v>6.747880935668945</v>
+        <v>6.977067947387695</v>
       </c>
       <c r="FJ2" t="n">
-        <v>7.710287570953369</v>
+        <v>7.462323665618896</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.7010955810546875</v>
+        <v>0.4454662501811981</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.822256326675415</v>
+        <v>2.06853175163269</v>
       </c>
       <c r="FM2" t="n">
-        <v>-8.001882553100586</v>
+        <v>-7.783389568328857</v>
       </c>
       <c r="FN2" t="n">
-        <v>-2.38377833366394</v>
+        <v>-2.1320960521698</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.2524027824401855</v>
+        <v>-0.0128838624805212</v>
       </c>
       <c r="FP2" t="n">
-        <v>1.861319541931152</v>
+        <v>2.090039730072021</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.7147808074951172</v>
+        <v>0.4678154587745667</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.3897280097007751</v>
+        <v>0.1519826799631119</v>
       </c>
       <c r="FS2" t="n">
-        <v>-1.638304829597473</v>
+        <v>-1.869831442832947</v>
       </c>
       <c r="FT2" t="n">
-        <v>3.713140726089478</v>
+        <v>3.466527700424194</v>
       </c>
       <c r="FU2" t="n">
-        <v>6.490040302276611</v>
+        <v>6.241302013397217</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.29036271572113</v>
+        <v>1.044919610023499</v>
       </c>
       <c r="FW2" t="n">
-        <v>-1.376426815986633</v>
+        <v>-1.621887922286987</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.8713738918304443</v>
+        <v>-1.123398423194885</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.9944435954093933</v>
+        <v>-0.7505871653556824</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.5215544700622559</v>
+        <v>-0.7705227136611938</v>
       </c>
       <c r="GA2" t="n">
-        <v>-4.584161758422852</v>
+        <v>-4.311599731445312</v>
       </c>
       <c r="GB2" t="n">
-        <v>-2.059912443161011</v>
+        <v>-1.813445210456848</v>
       </c>
       <c r="GC2" t="n">
-        <v>3.364799737930298</v>
+        <v>3.109937906265259</v>
       </c>
       <c r="GD2" t="n">
-        <v>-2.047084331512451</v>
+        <v>-2.074297666549683</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.7381216883659363</v>
+        <v>-0.9850559234619141</v>
       </c>
       <c r="GF2" t="n">
-        <v>1.240388751029968</v>
+        <v>1.501069068908691</v>
       </c>
       <c r="GG2" t="n">
-        <v>-11.31586360931396</v>
+        <v>-11.03446578979492</v>
       </c>
       <c r="GH2" t="n">
-        <v>3.255777359008789</v>
+        <v>3.512669801712036</v>
       </c>
       <c r="GI2" t="n">
-        <v>-4.527662754058838</v>
+        <v>-4.283874988555908</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.06331424415111542</v>
+        <v>-0.3371910750865936</v>
       </c>
       <c r="GK2" t="n">
-        <v>-5.382133483886719</v>
+        <v>-5.127415657043457</v>
       </c>
       <c r="GL2" t="n">
-        <v>-5.211938858032227</v>
+        <v>-4.963761806488037</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.04983818531036377</v>
+        <v>-0.200914666056633</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.08660217374563217</v>
+        <v>-0.3371753394603729</v>
       </c>
       <c r="GO2" t="n">
-        <v>-8.32473087310791</v>
+        <v>-8.076165199279785</v>
       </c>
       <c r="GP2" t="n">
-        <v>1.624512314796448</v>
+        <v>1.387479424476624</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.9461110830307007</v>
+        <v>-1.141245365142822</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.9612274765968323</v>
+        <v>1.019663572311401</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.105616569519043</v>
+        <v>-0.1543669402599335</v>
       </c>
       <c r="GT2" t="n">
-        <v>1.402267217636108</v>
+        <v>1.617533087730408</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.01898881420493126</v>
+        <v>0.2186627984046936</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.801290273666382</v>
+        <v>1.821978330612183</v>
       </c>
       <c r="GW2" t="n">
-        <v>-6.820618629455566</v>
+        <v>-6.572651386260986</v>
       </c>
       <c r="GX2" t="n">
-        <v>-1.403813481330872</v>
+        <v>-1.652546048164368</v>
       </c>
       <c r="GY2" t="n">
-        <v>-2.198681116104126</v>
+        <v>-2.443731546401978</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Media & Entertainment.xlsx
+++ b/static/Models/Classification/Equation/Media & Entertainment.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.512233734130859</v>
+        <v>2.170032262802124</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4780573844909668</v>
+        <v>-0.7519128322601318</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.06899094581604</v>
+        <v>-1.565780520439148</v>
       </c>
       <c r="E2" t="n">
-        <v>5.082296848297119</v>
+        <v>5.336905479431152</v>
       </c>
       <c r="F2" t="n">
-        <v>2.324001550674438</v>
+        <v>2.437283277511597</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.005561828613281</v>
+        <v>-2.471484184265137</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2412106990814209</v>
+        <v>-0.6298363208770752</v>
       </c>
       <c r="I2" t="n">
-        <v>2.121140480041504</v>
+        <v>2.527225255966187</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.809347152709961</v>
+        <v>-10.09808349609375</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.879739284515381</v>
+        <v>-2.540742635726929</v>
       </c>
       <c r="L2" t="n">
-        <v>2.416016578674316</v>
+        <v>1.970160961151123</v>
       </c>
       <c r="M2" t="n">
-        <v>1.75982403755188</v>
+        <v>1.299314141273499</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.234770536422729</v>
+        <v>-0.9637787342071533</v>
       </c>
       <c r="O2" t="n">
-        <v>2.405741691589355</v>
+        <v>3.057439088821411</v>
       </c>
       <c r="P2" t="n">
-        <v>-9.651056289672852</v>
+        <v>-9.205419540405273</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.4673745334148407</v>
+        <v>0.118150569498539</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.077650547027588</v>
+        <v>-2.863397836685181</v>
       </c>
       <c r="S2" t="n">
-        <v>-2.716479778289795</v>
+        <v>-2.971115589141846</v>
       </c>
       <c r="T2" t="n">
-        <v>3.581985950469971</v>
+        <v>3.978942394256592</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.472072601318359</v>
+        <v>-4.591979503631592</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.202269911766052</v>
+        <v>-0.8490675687789917</v>
       </c>
       <c r="W2" t="n">
-        <v>-18.77623748779297</v>
+        <v>-18.96516036987305</v>
       </c>
       <c r="X2" t="n">
-        <v>1.633638262748718</v>
+        <v>0.8659056425094604</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.468540906906128</v>
+        <v>-1.78010094165802</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.717775344848633</v>
+        <v>-2.241022348403931</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.094472885131836</v>
+        <v>2.620747327804565</v>
       </c>
       <c r="AB2" t="n">
-        <v>-8.663204193115234</v>
+        <v>-8.365097045898438</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.575748682022095</v>
+        <v>3.009613037109375</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.8167175650596619</v>
+        <v>-0.4601786434650421</v>
       </c>
       <c r="AE2" t="n">
-        <v>-6.412975788116455</v>
+        <v>-6.946017265319824</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.8783724308013916</v>
+        <v>-1.058526635169983</v>
       </c>
       <c r="AG2" t="n">
-        <v>-4.832816123962402</v>
+        <v>-5.265280723571777</v>
       </c>
       <c r="AH2" t="n">
-        <v>-13.33152294158936</v>
+        <v>-13.61391925811768</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1412929892539978</v>
+        <v>0.5051513314247131</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.2510351538658142</v>
+        <v>-0.5726056694984436</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1.452403903007507</v>
+        <v>-1.936455965042114</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.554101824760437</v>
+        <v>-1.117819786071777</v>
       </c>
       <c r="AM2" t="n">
-        <v>-10.33910179138184</v>
+        <v>-10.58486557006836</v>
       </c>
       <c r="AN2" t="n">
-        <v>-11.52232837677002</v>
+        <v>-11.92274475097656</v>
       </c>
       <c r="AO2" t="n">
-        <v>-3.34926438331604</v>
+        <v>-3.091443777084351</v>
       </c>
       <c r="AP2" t="n">
-        <v>-6.758572578430176</v>
+        <v>-6.368937492370605</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-2.322360992431641</v>
+        <v>-1.958708524703979</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.067968368530273</v>
+        <v>3.569381237030029</v>
       </c>
       <c r="AS2" t="n">
-        <v>-7.391396522521973</v>
+        <v>-7.559667110443115</v>
       </c>
       <c r="AT2" t="n">
-        <v>-4.49232816696167</v>
+        <v>-4.079208850860596</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.486416816711426</v>
+        <v>9.049877166748047</v>
       </c>
       <c r="AV2" t="n">
-        <v>-2.393757820129395</v>
+        <v>-1.888454079627991</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.5382596850395203</v>
+        <v>-0.9154457449913025</v>
       </c>
       <c r="AX2" t="n">
-        <v>-3.420941591262817</v>
+        <v>-3.000162124633789</v>
       </c>
       <c r="AY2" t="n">
-        <v>-4.132003307342529</v>
+        <v>-4.437056064605713</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5.751213073730469</v>
+        <v>6.168169975280762</v>
       </c>
       <c r="BA2" t="n">
-        <v>3.513291120529175</v>
+        <v>3.468038320541382</v>
       </c>
       <c r="BB2" t="n">
-        <v>-3.248048305511475</v>
+        <v>-3.072651624679565</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.118790864944458</v>
+        <v>0.5267042517662048</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.487120628356934</v>
+        <v>-1.111158967018127</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.865452289581299</v>
+        <v>1.465558290481567</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.734093070030212</v>
+        <v>2.149620532989502</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.1599198430776596</v>
+        <v>0.545627236366272</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.07782943546772003</v>
+        <v>0.4051358699798584</v>
       </c>
       <c r="BI2" t="n">
-        <v>2.755921125411987</v>
+        <v>3.131497383117676</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4.802318572998047</v>
+        <v>4.727190494537354</v>
       </c>
       <c r="BK2" t="n">
-        <v>4.05498218536377</v>
+        <v>3.599821805953979</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.9327075481414795</v>
+        <v>-1.264102458953857</v>
       </c>
       <c r="BM2" t="n">
-        <v>-3.177676200866699</v>
+        <v>-2.7957763671875</v>
       </c>
       <c r="BN2" t="n">
-        <v>4.559169769287109</v>
+        <v>5.075236797332764</v>
       </c>
       <c r="BO2" t="n">
-        <v>-10.98269081115723</v>
+        <v>-11.35800170898438</v>
       </c>
       <c r="BP2" t="n">
-        <v>-4.148804664611816</v>
+        <v>-4.023206233978271</v>
       </c>
       <c r="BQ2" t="n">
-        <v>2.87042236328125</v>
+        <v>3.502762079238892</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.765034437179565</v>
+        <v>-2.223055124282837</v>
       </c>
       <c r="BS2" t="n">
-        <v>2.02994966506958</v>
+        <v>1.651445150375366</v>
       </c>
       <c r="BT2" t="n">
-        <v>2.469509601593018</v>
+        <v>1.989256381988525</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.7036935687065125</v>
+        <v>-0.3750388622283936</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.831318974494934</v>
+        <v>2.319560766220093</v>
       </c>
       <c r="BW2" t="n">
-        <v>2.121964693069458</v>
+        <v>2.46438193321228</v>
       </c>
       <c r="BX2" t="n">
-        <v>-10.27857971191406</v>
+        <v>-10.56214714050293</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.9361343383789062</v>
+        <v>0.4524982571601868</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-2.798341512680054</v>
+        <v>-3.095405101776123</v>
       </c>
       <c r="CA2" t="n">
-        <v>-5.438399791717529</v>
+        <v>-5.875146865844727</v>
       </c>
       <c r="CB2" t="n">
-        <v>-5.960294246673584</v>
+        <v>-6.177525997161865</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.04638533294200897</v>
+        <v>0.3851504921913147</v>
       </c>
       <c r="CD2" t="n">
-        <v>-1.325410485267639</v>
+        <v>-0.8273802995681763</v>
       </c>
       <c r="CE2" t="n">
-        <v>-13.14003276824951</v>
+        <v>-12.5633020401001</v>
       </c>
       <c r="CF2" t="n">
-        <v>-10.2418384552002</v>
+        <v>-10.49466514587402</v>
       </c>
       <c r="CG2" t="n">
-        <v>-13.36279010772705</v>
+        <v>-13.75358295440674</v>
       </c>
       <c r="CH2" t="n">
-        <v>-8.252251625061035</v>
+        <v>-8.338547706604004</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.3277496993541718</v>
+        <v>0.01613832637667656</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-5.061330795288086</v>
+        <v>-5.50151538848877</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.136132001876831</v>
+        <v>1.517690300941467</v>
       </c>
       <c r="CL2" t="n">
-        <v>3.590514898300171</v>
+        <v>4.035328388214111</v>
       </c>
       <c r="CM2" t="n">
-        <v>-4.774740219116211</v>
+        <v>-4.404237270355225</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.304205179214478</v>
+        <v>1.786375284194946</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.9260615110397339</v>
+        <v>-0.5428813695907593</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.215668439865112</v>
+        <v>0.9107279181480408</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.4147346019744873</v>
+        <v>-0.2039547860622406</v>
       </c>
       <c r="CR2" t="n">
-        <v>-1.652616858482361</v>
+        <v>-2.101893901824951</v>
       </c>
       <c r="CS2" t="n">
-        <v>-3.127628087997437</v>
+        <v>-2.78222131729126</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.1917803585529327</v>
+        <v>0.6152360439300537</v>
       </c>
       <c r="CU2" t="n">
-        <v>-2.765892267227173</v>
+        <v>-2.458140850067139</v>
       </c>
       <c r="CV2" t="n">
-        <v>4.133589744567871</v>
+        <v>4.537680625915527</v>
       </c>
       <c r="CW2" t="n">
-        <v>-1.628789782524109</v>
+        <v>-1.179698705673218</v>
       </c>
       <c r="CX2" t="n">
-        <v>-1.87453556060791</v>
+        <v>-1.381126999855042</v>
       </c>
       <c r="CY2" t="n">
-        <v>-6.289392471313477</v>
+        <v>-6.726139545440674</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.6752407550811768</v>
+        <v>-1.168556332588196</v>
       </c>
       <c r="DA2" t="n">
-        <v>-2.258826732635498</v>
+        <v>-2.653778314590454</v>
       </c>
       <c r="DB2" t="n">
-        <v>7.37047290802002</v>
+        <v>7.028334140777588</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.4626451134681702</v>
+        <v>0.7886191010475159</v>
       </c>
       <c r="DD2" t="n">
-        <v>-9.982670783996582</v>
+        <v>-10.22472286224365</v>
       </c>
       <c r="DE2" t="n">
-        <v>-2.363038063049316</v>
+        <v>-2.022372007369995</v>
       </c>
       <c r="DF2" t="n">
-        <v>4.624632358551025</v>
+        <v>4.322851181030273</v>
       </c>
       <c r="DG2" t="n">
-        <v>-1.904322743415833</v>
+        <v>-1.860556244850159</v>
       </c>
       <c r="DH2" t="n">
-        <v>-6.654913902282715</v>
+        <v>-7.097323417663574</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.8045320510864258</v>
+        <v>1.039067625999451</v>
       </c>
       <c r="DJ2" t="n">
-        <v>7.938014507293701</v>
+        <v>8.413103103637695</v>
       </c>
       <c r="DK2" t="n">
-        <v>3.541049480438232</v>
+        <v>3.064161777496338</v>
       </c>
       <c r="DL2" t="n">
-        <v>-7.518979072570801</v>
+        <v>-7.955796718597412</v>
       </c>
       <c r="DM2" t="n">
-        <v>19.86073684692383</v>
+        <v>19.7558765411377</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.232944369316101</v>
+        <v>1.628486752510071</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.6894771456718445</v>
+        <v>-0.305376261472702</v>
       </c>
       <c r="DP2" t="n">
-        <v>5.50255012512207</v>
+        <v>5.164499282836914</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.7178067564964294</v>
+        <v>-0.3666291832923889</v>
       </c>
       <c r="DR2" t="n">
-        <v>-1.658528804779053</v>
+        <v>-2.067966461181641</v>
       </c>
       <c r="DS2" t="n">
-        <v>8.706212997436523</v>
+        <v>8.254201889038086</v>
       </c>
       <c r="DT2" t="n">
-        <v>-1.659674882888794</v>
+        <v>-1.836699366569519</v>
       </c>
       <c r="DU2" t="n">
-        <v>-2.40767502784729</v>
+        <v>-2.811434984207153</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.1317324191331863</v>
+        <v>0.6450659036636353</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.6713749170303345</v>
+        <v>-0.1469941288232803</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.4870072603225708</v>
+        <v>0.8733061552047729</v>
       </c>
       <c r="DY2" t="n">
-        <v>-5.028533458709717</v>
+        <v>-5.377842426300049</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.3464958965778351</v>
+        <v>0.2924804091453552</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.5457425117492676</v>
+        <v>0.1100033447146416</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.3648037612438202</v>
+        <v>-0.01965724863111973</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.315464496612549</v>
+        <v>-1.165193796157837</v>
       </c>
       <c r="ED2" t="n">
-        <v>-0.6759345531463623</v>
+        <v>-0.2718743979930878</v>
       </c>
       <c r="EE2" t="n">
-        <v>-1.359604120254517</v>
+        <v>-1.019655585289001</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.4989952147006989</v>
+        <v>-0.6905286908149719</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.6791741847991943</v>
+        <v>-0.956394374370575</v>
       </c>
       <c r="EH2" t="n">
-        <v>-12.70566177368164</v>
+        <v>-12.86444664001465</v>
       </c>
       <c r="EI2" t="n">
-        <v>2.171596765518188</v>
+        <v>1.888325691223145</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-8.900740623474121</v>
+        <v>-8.393094062805176</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.6421918869018555</v>
+        <v>1.057841181755066</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.6550151705741882</v>
+        <v>-0.2935569882392883</v>
       </c>
       <c r="EM2" t="n">
-        <v>-3.140282869338989</v>
+        <v>-3.471429347991943</v>
       </c>
       <c r="EN2" t="n">
-        <v>-12.10812187194824</v>
+        <v>-11.68862628936768</v>
       </c>
       <c r="EO2" t="n">
-        <v>-4.998203754425049</v>
+        <v>-5.417827606201172</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.925105214118958</v>
+        <v>2.153219699859619</v>
       </c>
       <c r="EQ2" t="n">
-        <v>3.027650356292725</v>
+        <v>3.271133422851562</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.1462232321500778</v>
+        <v>0.02325938455760479</v>
       </c>
       <c r="ES2" t="n">
-        <v>-11.97517776489258</v>
+        <v>-12.3072566986084</v>
       </c>
       <c r="ET2" t="n">
-        <v>2.129616260528564</v>
+        <v>2.584001779556274</v>
       </c>
       <c r="EU2" t="n">
-        <v>-8.215336799621582</v>
+        <v>-8.664224624633789</v>
       </c>
       <c r="EV2" t="n">
-        <v>-4.984634399414062</v>
+        <v>-4.498133182525635</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.966207027435303</v>
+        <v>1.958293318748474</v>
       </c>
       <c r="EX2" t="n">
-        <v>-2.069069862365723</v>
+        <v>-2.266721248626709</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.7819615006446838</v>
+        <v>-0.5350492596626282</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-22.45565223693848</v>
+        <v>-22.73985481262207</v>
       </c>
       <c r="FA2" t="n">
-        <v>-3.197455406188965</v>
+        <v>-3.658445596694946</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.8215304017066956</v>
+        <v>1.158689975738525</v>
       </c>
       <c r="FC2" t="n">
-        <v>-5.369608402252197</v>
+        <v>-5.668907165527344</v>
       </c>
       <c r="FD2" t="n">
-        <v>-2.196850776672363</v>
+        <v>-2.696397066116333</v>
       </c>
       <c r="FE2" t="n">
-        <v>3.410443305969238</v>
+        <v>2.960227727890015</v>
       </c>
       <c r="FF2" t="n">
-        <v>2.358228921890259</v>
+        <v>2.764257192611694</v>
       </c>
       <c r="FG2" t="n">
-        <v>-11.29311466217041</v>
+        <v>-10.79471015930176</v>
       </c>
       <c r="FH2" t="n">
-        <v>3.096111536026001</v>
+        <v>2.648274421691895</v>
       </c>
       <c r="FI2" t="n">
-        <v>6.977067947387695</v>
+        <v>6.558779716491699</v>
       </c>
       <c r="FJ2" t="n">
-        <v>7.462323665618896</v>
+        <v>7.830980777740479</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.4454662501811981</v>
+        <v>0.9644802212715149</v>
       </c>
       <c r="FL2" t="n">
-        <v>2.06853175163269</v>
+        <v>1.81560492515564</v>
       </c>
       <c r="FM2" t="n">
-        <v>-7.783389568328857</v>
+        <v>-7.30594539642334</v>
       </c>
       <c r="FN2" t="n">
-        <v>-2.1320960521698</v>
+        <v>-2.447168827056885</v>
       </c>
       <c r="FO2" t="n">
-        <v>-0.0128838624805212</v>
+        <v>-0.04685170575976372</v>
       </c>
       <c r="FP2" t="n">
-        <v>2.090039730072021</v>
+        <v>1.222719073295593</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.4678154587745667</v>
+        <v>0.8477237224578857</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.1519826799631119</v>
+        <v>0.4844714999198914</v>
       </c>
       <c r="FS2" t="n">
-        <v>-1.869831442832947</v>
+        <v>-1.427537679672241</v>
       </c>
       <c r="FT2" t="n">
-        <v>3.466527700424194</v>
+        <v>3.846427917480469</v>
       </c>
       <c r="FU2" t="n">
-        <v>6.241302013397217</v>
+        <v>6.639348983764648</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.044919610023499</v>
+        <v>1.385360360145569</v>
       </c>
       <c r="FW2" t="n">
-        <v>-1.621887922286987</v>
+        <v>-1.259145855903625</v>
       </c>
       <c r="FX2" t="n">
-        <v>-1.123398423194885</v>
+        <v>-0.6749709248542786</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.7505871653556824</v>
+        <v>-0.3526780009269714</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.7705227136611938</v>
+        <v>-1.182908296585083</v>
       </c>
       <c r="GA2" t="n">
-        <v>-4.311599731445312</v>
+        <v>-4.212854385375977</v>
       </c>
       <c r="GB2" t="n">
-        <v>-1.813445210456848</v>
+        <v>-2.158991575241089</v>
       </c>
       <c r="GC2" t="n">
-        <v>3.109937906265259</v>
+        <v>3.844394207000732</v>
       </c>
       <c r="GD2" t="n">
-        <v>-2.074297666549683</v>
+        <v>-1.397784113883972</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.9850559234619141</v>
+        <v>-0.6245713829994202</v>
       </c>
       <c r="GF2" t="n">
-        <v>1.501069068908691</v>
+        <v>1.339032888412476</v>
       </c>
       <c r="GG2" t="n">
-        <v>-11.03446578979492</v>
+        <v>-11.14757347106934</v>
       </c>
       <c r="GH2" t="n">
-        <v>3.512669801712036</v>
+        <v>3.930527448654175</v>
       </c>
       <c r="GI2" t="n">
-        <v>-4.283874988555908</v>
+        <v>-4.129507064819336</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-0.3371910750865936</v>
+        <v>0.3254678547382355</v>
       </c>
       <c r="GK2" t="n">
-        <v>-5.127415657043457</v>
+        <v>-5.424400806427002</v>
       </c>
       <c r="GL2" t="n">
-        <v>-4.963761806488037</v>
+        <v>-4.511429786682129</v>
       </c>
       <c r="GM2" t="n">
-        <v>-0.200914666056633</v>
+        <v>0.3272941708564758</v>
       </c>
       <c r="GN2" t="n">
-        <v>-0.3371753394603729</v>
+        <v>0.08420218527317047</v>
       </c>
       <c r="GO2" t="n">
-        <v>-8.076165199279785</v>
+        <v>-7.69184684753418</v>
       </c>
       <c r="GP2" t="n">
-        <v>1.387479424476624</v>
+        <v>1.797255873680115</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-1.141245365142822</v>
+        <v>-1.40877640247345</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.019663572311401</v>
+        <v>0.6152809858322144</v>
       </c>
       <c r="GS2" t="n">
-        <v>-0.1543669402599335</v>
+        <v>0.4104913473129272</v>
       </c>
       <c r="GT2" t="n">
-        <v>1.617533087730408</v>
+        <v>2.287310600280762</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.2186627984046936</v>
+        <v>-0.1585236638784409</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.821978330612183</v>
+        <v>1.54354190826416</v>
       </c>
       <c r="GW2" t="n">
-        <v>-6.572651386260986</v>
+        <v>-6.308249473571777</v>
       </c>
       <c r="GX2" t="n">
-        <v>-1.652546048164368</v>
+        <v>-1.285498738288879</v>
       </c>
       <c r="GY2" t="n">
-        <v>-2.443731546401978</v>
+        <v>-2.086901903152466</v>
       </c>
     </row>
   </sheetData>
